--- a/dados/TABNET/Vacinas/Cobertura/cobertura_por_ano_e_uf.xlsx
+++ b/dados/TABNET/Vacinas/Cobertura/cobertura_por_ano_e_uf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Projetos Dados\Data Science\Bootcamp-Data-Science-Aplicada-2020\dados\TABNET\Vacinas\Cobertura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FEAA9E-56AC-4E8C-A4AE-70B3AB704ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297058B7-0106-4197-92FF-6542E3E899FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3361C14A-FD23-4A12-B780-3BFE71077A47}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{3361C14A-FD23-4A12-B780-3BFE71077A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Cobertura_por_ano" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="32">
   <si>
     <t>BCG</t>
   </si>
@@ -182,7 +182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE4E9F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E9F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,11 +306,730 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -334,697 +1071,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1039,33 +1085,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{389C48DA-9062-47FB-A3BC-E469E5B6E70F}" name="Tabela1" displayName="Tabela1" ref="A1:X41" totalsRowShown="0" headerRowDxfId="0" dataDxfId="25" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{389C48DA-9062-47FB-A3BC-E469E5B6E70F}" name="Tabela1" displayName="Tabela1" ref="A1:X41" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="A1:X41" xr:uid="{911B5387-8E7E-4C09-ACF2-D49FC8AD185D}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{E8DC73BE-697A-4F57-9849-DA9BA5167AF1}" name="Ano" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{E5611F76-F1B4-40BD-92CD-4F4DBF50DBBE}" name="Região" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{3F5991C5-1484-4684-B232-36DE5DA62F9E}" name="BCG" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{F5DAD6C9-C5FB-495C-9419-DFA2EBD2AE44}" name="Hepatite B em crianças até 30 dias" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{C59DAA3C-3D23-4A8D-85B7-838DF57BA2B4}" name="Rotavírus Humano" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{A16F4946-C2B9-4140-B90D-22A8349E28B0}" name="Meningococo C" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{1359767C-1D4B-4160-9F4B-6C1CD73F5DE3}" name="Hepatite B" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{DB6B6508-AA89-4DA0-AB8D-621C2C5412B4}" name="Penta" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{2BA50E3D-6E6D-453E-B447-0CCB5B42F3C5}" name="Pneumocócica" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{F28DF924-FACE-4A1E-8380-A4553E6409EB}" name="Poliomielite" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{D8430FCC-2615-4C83-B28A-560BBA547EC2}" name="Poliomielite 4 anos" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{19CE43BA-E68B-42F0-9834-B666977D7806}" name="Febre Amarela" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{65F718C2-FF54-430E-8E11-986EC5CC5356}" name="Hepatite A" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{9D9D4F21-C83F-4E6E-979A-4BCDAC4B2BB7}" name="Pneumocócica(1º ref)" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{6CFC9680-C31C-443A-AC39-BA07A9C2D391}" name="Meningococo C (1º ref)" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{67C45CD9-F275-4BF6-9381-126610BCDB88}" name="Poliomielite(1º ref)" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{6A5A264C-3EEE-486F-92B0-7062296CE46C}" name="Tríplice Viral D1" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{9C352C60-D79F-4B76-9918-CCAE768E43AF}" name="Tríplice Viral D2" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{43E0502B-5F84-43D0-8837-709DC8F1DEBD}" name="Tetra Viral(SRC+VZ)" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{FB2C40F9-EA41-41B2-A866-14FCA6B28DD0}" name="DTP REF (4 e 6 anos)" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{41494A97-6963-47CB-AFC8-52BBE2791163}" name="Tríplice Bacteriana(DTP)(1º ref)" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{0759BEB9-4DBB-4A23-9173-38F9BA4D05FE}" name="Dupla adulto e tríplice acelular gestante" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{6523B827-A443-46EC-8622-BB2A38C5F8F0}" name="dTpa gestante" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{996853A0-0138-40F6-A725-3225EE0CA558}" name="Total" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E8DC73BE-697A-4F57-9849-DA9BA5167AF1}" name="Ano" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{E5611F76-F1B4-40BD-92CD-4F4DBF50DBBE}" name="Região" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3F5991C5-1484-4684-B232-36DE5DA62F9E}" name="BCG" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{F5DAD6C9-C5FB-495C-9419-DFA2EBD2AE44}" name="Hepatite B em crianças até 30 dias" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{C59DAA3C-3D23-4A8D-85B7-838DF57BA2B4}" name="Rotavírus Humano" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{A16F4946-C2B9-4140-B90D-22A8349E28B0}" name="Meningococo C" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{1359767C-1D4B-4160-9F4B-6C1CD73F5DE3}" name="Hepatite B" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{DB6B6508-AA89-4DA0-AB8D-621C2C5412B4}" name="Penta" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{2BA50E3D-6E6D-453E-B447-0CCB5B42F3C5}" name="Pneumocócica" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{F28DF924-FACE-4A1E-8380-A4553E6409EB}" name="Poliomielite" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{D8430FCC-2615-4C83-B28A-560BBA547EC2}" name="Poliomielite 4 anos" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{19CE43BA-E68B-42F0-9834-B666977D7806}" name="Febre Amarela" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{65F718C2-FF54-430E-8E11-986EC5CC5356}" name="Hepatite A" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{9D9D4F21-C83F-4E6E-979A-4BCDAC4B2BB7}" name="Pneumocócica(1º ref)" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{6CFC9680-C31C-443A-AC39-BA07A9C2D391}" name="Meningococo C (1º ref)" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{67C45CD9-F275-4BF6-9381-126610BCDB88}" name="Poliomielite(1º ref)" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{6A5A264C-3EEE-486F-92B0-7062296CE46C}" name="Tríplice Viral D1" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{9C352C60-D79F-4B76-9918-CCAE768E43AF}" name="Tríplice Viral D2" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{43E0502B-5F84-43D0-8837-709DC8F1DEBD}" name="Tetra Viral(SRC+VZ)" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{FB2C40F9-EA41-41B2-A866-14FCA6B28DD0}" name="DTP REF (4 e 6 anos)" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{41494A97-6963-47CB-AFC8-52BBE2791163}" name="Tríplice Bacteriana(DTP)(1º ref)" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{0759BEB9-4DBB-4A23-9173-38F9BA4D05FE}" name="Dupla adulto e tríplice acelular gestante" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{6523B827-A443-46EC-8622-BB2A38C5F8F0}" name="dTpa gestante" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{996853A0-0138-40F6-A725-3225EE0CA558}" name="Total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1370,109 +1416,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FDD6BA-E541-4817-B1C0-A6AF808C03DB}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="9.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="20" style="16" customWidth="1"/>
-    <col min="17" max="18" width="17.7109375" style="16" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" style="16" customWidth="1"/>
-    <col min="21" max="21" width="31.140625" style="16" customWidth="1"/>
-    <col min="22" max="22" width="39.5703125" style="16" customWidth="1"/>
-    <col min="23" max="23" width="16" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="9.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="27" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" style="27" customWidth="1"/>
+    <col min="16" max="16" width="20" style="27" customWidth="1"/>
+    <col min="17" max="18" width="17.7109375" style="27" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="27" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" style="27" customWidth="1"/>
+    <col min="21" max="21" width="31.140625" style="27" customWidth="1"/>
+    <col min="22" max="22" width="39.5703125" style="27" customWidth="1"/>
+    <col min="23" max="23" width="16" style="27" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3916,60 +3962,60 @@
         <v>88.16</v>
       </c>
       <c r="K27" s="16">
-        <f>'2015'!J3</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="16">
-        <f>'2015'!K3</f>
-        <v>75.34</v>
-      </c>
-      <c r="M27" s="16">
         <f>'2015'!L3</f>
         <v>86.67</v>
       </c>
-      <c r="N27" s="16">
+      <c r="L27" s="16">
         <f>'2015'!M3</f>
         <v>72.13</v>
       </c>
-      <c r="O27" s="16">
+      <c r="M27" s="16">
         <f>'2015'!N3</f>
         <v>72.06</v>
       </c>
-      <c r="P27" s="16">
+      <c r="N27" s="16">
         <f>'2015'!O3</f>
         <v>71.680000000000007</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="O27" s="16">
         <f>'2015'!P3</f>
         <v>85.6</v>
       </c>
-      <c r="R27" s="16">
+      <c r="P27" s="16">
         <f>'2015'!Q3</f>
         <v>62.76</v>
       </c>
-      <c r="S27" s="16">
+      <c r="Q27" s="16">
         <f>'2015'!R3</f>
         <v>58.01</v>
       </c>
-      <c r="T27" s="16">
+      <c r="R27" s="16">
         <f>'2015'!S3</f>
         <v>85.11</v>
       </c>
-      <c r="U27" s="16">
+      <c r="S27" s="16">
         <f>'2015'!T3</f>
         <v>71.62</v>
       </c>
-      <c r="V27" s="16">
+      <c r="T27" s="16">
         <f>'2015'!U3</f>
         <v>32.53</v>
       </c>
-      <c r="W27" s="16">
+      <c r="U27" s="16">
         <f>'2015'!V3</f>
         <v>27.87</v>
       </c>
-      <c r="X27" s="16">
+      <c r="V27" s="16">
         <f>'2015'!W3</f>
         <v>84.26</v>
+      </c>
+      <c r="W27" s="16">
+        <f>'2015'!X3</f>
+        <v>170.83</v>
+      </c>
+      <c r="X27" s="16">
+        <f>'2015'!Y3</f>
+        <v>83.05</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -4012,60 +4058,60 @@
         <v>100.44</v>
       </c>
       <c r="K28" s="16">
-        <f>'2015'!J4</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="16">
-        <f>'2015'!K4</f>
-        <v>38.9</v>
-      </c>
-      <c r="M28" s="16">
         <f>'2015'!L4</f>
         <v>94.35</v>
       </c>
-      <c r="N28" s="16">
+      <c r="L28" s="16">
         <f>'2015'!M4</f>
         <v>86.4</v>
       </c>
-      <c r="O28" s="16">
+      <c r="M28" s="16">
         <f>'2015'!N4</f>
         <v>86.25</v>
       </c>
-      <c r="P28" s="16">
+      <c r="N28" s="16">
         <f>'2015'!O4</f>
         <v>86.53</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="O28" s="16">
         <f>'2015'!P4</f>
         <v>95.31</v>
       </c>
-      <c r="R28" s="16">
+      <c r="P28" s="16">
         <f>'2015'!Q4</f>
         <v>80.349999999999994</v>
       </c>
-      <c r="S28" s="16">
+      <c r="Q28" s="16">
         <f>'2015'!R4</f>
         <v>77.05</v>
       </c>
-      <c r="T28" s="16">
+      <c r="R28" s="16">
         <f>'2015'!S4</f>
         <v>96.34</v>
       </c>
-      <c r="U28" s="16">
+      <c r="S28" s="16">
         <f>'2015'!T4</f>
         <v>86.18</v>
       </c>
-      <c r="V28" s="16">
+      <c r="T28" s="16">
         <f>'2015'!U4</f>
         <v>51.17</v>
       </c>
-      <c r="W28" s="16">
+      <c r="U28" s="16">
         <f>'2015'!V4</f>
         <v>44.19</v>
       </c>
-      <c r="X28" s="16">
+      <c r="V28" s="16">
         <f>'2015'!W4</f>
         <v>96</v>
+      </c>
+      <c r="W28" s="16">
+        <f>'2015'!X4</f>
+        <v>202.5</v>
+      </c>
+      <c r="X28" s="16">
+        <f>'2015'!Y4</f>
+        <v>95.4</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -4108,60 +4154,60 @@
         <v>100.52</v>
       </c>
       <c r="K29" s="16">
-        <f>'2015'!J5</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="16">
-        <f>'2015'!K5</f>
-        <v>31.17</v>
-      </c>
-      <c r="M29" s="16">
         <f>'2015'!L5</f>
         <v>101.02</v>
       </c>
-      <c r="N29" s="16">
+      <c r="L29" s="16">
         <f>'2015'!M5</f>
         <v>92.9</v>
       </c>
-      <c r="O29" s="16">
+      <c r="M29" s="16">
         <f>'2015'!N5</f>
         <v>93.07</v>
       </c>
-      <c r="P29" s="16">
+      <c r="N29" s="16">
         <f>'2015'!O5</f>
         <v>88.5</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="O29" s="16">
         <f>'2015'!P5</f>
         <v>99.92</v>
       </c>
-      <c r="R29" s="16">
+      <c r="P29" s="16">
         <f>'2015'!Q5</f>
         <v>86.97</v>
       </c>
-      <c r="S29" s="16">
+      <c r="Q29" s="16">
         <f>'2015'!R5</f>
         <v>86.98</v>
       </c>
-      <c r="T29" s="16">
+      <c r="R29" s="16">
         <f>'2015'!S5</f>
         <v>100.05</v>
       </c>
-      <c r="U29" s="16">
+      <c r="S29" s="16">
         <f>'2015'!T5</f>
         <v>90.23</v>
       </c>
-      <c r="V29" s="16">
+      <c r="T29" s="16">
         <f>'2015'!U5</f>
         <v>50.35</v>
       </c>
-      <c r="W29" s="16">
+      <c r="U29" s="16">
         <f>'2015'!V5</f>
         <v>53.97</v>
       </c>
-      <c r="X29" s="16">
+      <c r="V29" s="16">
         <f>'2015'!W5</f>
         <v>97.94</v>
+      </c>
+      <c r="W29" s="16">
+        <f>'2015'!X5</f>
+        <v>202.63</v>
+      </c>
+      <c r="X29" s="16">
+        <f>'2015'!Y5</f>
+        <v>98.51</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -4204,60 +4250,60 @@
         <v>95.57</v>
       </c>
       <c r="K30" s="16">
-        <f>'2015'!J6</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="16">
-        <f>'2015'!K6</f>
-        <v>58.07</v>
-      </c>
-      <c r="M30" s="16">
         <f>'2015'!L6</f>
         <v>101.63</v>
       </c>
-      <c r="N30" s="16">
+      <c r="L30" s="16">
         <f>'2015'!M6</f>
         <v>92.51</v>
       </c>
-      <c r="O30" s="16">
+      <c r="M30" s="16">
         <f>'2015'!N6</f>
         <v>90.23</v>
       </c>
-      <c r="P30" s="16">
+      <c r="N30" s="16">
         <f>'2015'!O6</f>
         <v>80.099999999999994</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="O30" s="16">
         <f>'2015'!P6</f>
         <v>96.12</v>
       </c>
-      <c r="R30" s="16">
+      <c r="P30" s="16">
         <f>'2015'!Q6</f>
         <v>76.540000000000006</v>
       </c>
-      <c r="S30" s="16">
+      <c r="Q30" s="16">
         <f>'2015'!R6</f>
         <v>70.69</v>
       </c>
-      <c r="T30" s="16">
+      <c r="R30" s="16">
         <f>'2015'!S6</f>
         <v>98.93</v>
       </c>
-      <c r="U30" s="16">
+      <c r="S30" s="16">
         <f>'2015'!T6</f>
         <v>84.41</v>
       </c>
-      <c r="V30" s="16">
+      <c r="T30" s="16">
         <f>'2015'!U6</f>
         <v>31.42</v>
       </c>
-      <c r="W30" s="16">
+      <c r="U30" s="16">
         <f>'2015'!V6</f>
         <v>35.630000000000003</v>
       </c>
-      <c r="X30" s="16">
+      <c r="V30" s="16">
         <f>'2015'!W6</f>
         <v>97.57</v>
+      </c>
+      <c r="W30" s="16">
+        <f>'2015'!X6</f>
+        <v>191.05</v>
+      </c>
+      <c r="X30" s="16">
+        <f>'2015'!Y6</f>
+        <v>94.24</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
@@ -4300,60 +4346,60 @@
         <v>97.88</v>
       </c>
       <c r="K31" s="16">
-        <f>'2015'!J7</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="16">
-        <f>'2015'!K7</f>
-        <v>87.17</v>
-      </c>
-      <c r="M31" s="16">
         <f>'2015'!L7</f>
         <v>93.56</v>
       </c>
-      <c r="N31" s="16">
+      <c r="L31" s="16">
         <f>'2015'!M7</f>
         <v>87.73</v>
       </c>
-      <c r="O31" s="16">
+      <c r="M31" s="16">
         <f>'2015'!N7</f>
         <v>85.06</v>
       </c>
-      <c r="P31" s="16">
+      <c r="N31" s="16">
         <f>'2015'!O7</f>
         <v>82.42</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="O31" s="16">
         <f>'2015'!P7</f>
         <v>93.73</v>
       </c>
-      <c r="R31" s="16">
+      <c r="P31" s="16">
         <f>'2015'!Q7</f>
         <v>72.569999999999993</v>
       </c>
-      <c r="S31" s="16">
+      <c r="Q31" s="16">
         <f>'2015'!R7</f>
         <v>68.23</v>
       </c>
-      <c r="T31" s="16">
+      <c r="R31" s="16">
         <f>'2015'!S7</f>
         <v>95.75</v>
       </c>
-      <c r="U31" s="16">
+      <c r="S31" s="16">
         <f>'2015'!T7</f>
         <v>83.68</v>
       </c>
-      <c r="V31" s="16">
+      <c r="T31" s="16">
         <f>'2015'!U7</f>
         <v>43.37</v>
       </c>
-      <c r="W31" s="16">
+      <c r="U31" s="16">
         <f>'2015'!V7</f>
         <v>41.87</v>
       </c>
-      <c r="X31" s="16">
+      <c r="V31" s="16">
         <f>'2015'!W7</f>
         <v>93.21</v>
+      </c>
+      <c r="W31" s="16">
+        <f>'2015'!X7</f>
+        <v>186.86</v>
+      </c>
+      <c r="X31" s="16">
+        <f>'2015'!Y7</f>
+        <v>94.42</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -4363,93 +4409,93 @@
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="16">
-        <f>'2014'!B3</f>
-        <v>114.13</v>
-      </c>
-      <c r="D32" s="16">
-        <f>'2014'!C3</f>
-        <v>91.38</v>
-      </c>
-      <c r="E32" s="16">
-        <f>'2014'!D3</f>
-        <v>84.11</v>
-      </c>
-      <c r="F32" s="16">
-        <f>'2014'!E3</f>
-        <v>86.44</v>
-      </c>
-      <c r="G32" s="16">
-        <f>'2014'!F3</f>
-        <v>86.93</v>
-      </c>
-      <c r="H32" s="16">
-        <f>'2014'!G3</f>
-        <v>86.5</v>
-      </c>
-      <c r="I32" s="16">
-        <f>'2014'!H3</f>
-        <v>76.56</v>
-      </c>
-      <c r="J32" s="16">
-        <f>'2014'!I3</f>
-        <v>90.05</v>
-      </c>
-      <c r="K32" s="16">
-        <f>'2014'!J3</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="16">
-        <f>'2014'!K3</f>
-        <v>80.02</v>
-      </c>
-      <c r="M32" s="16">
-        <f>'2014'!L3</f>
-        <v>36.25</v>
-      </c>
-      <c r="N32" s="16">
-        <f>'2014'!M3</f>
-        <v>72.63</v>
-      </c>
-      <c r="O32" s="16">
-        <f>'2014'!N3</f>
-        <v>73.53</v>
-      </c>
-      <c r="P32" s="16">
-        <f>'2014'!O3</f>
-        <v>75.25</v>
-      </c>
-      <c r="Q32" s="16">
-        <f>'2014'!P3</f>
-        <v>116.05</v>
-      </c>
-      <c r="R32" s="16">
-        <f>'2014'!Q3</f>
-        <v>77.72</v>
-      </c>
-      <c r="S32" s="16">
-        <f>'2014'!R3</f>
-        <v>73.510000000000005</v>
-      </c>
-      <c r="T32" s="16">
-        <f>'2014'!S3</f>
-        <v>86.62</v>
-      </c>
-      <c r="U32" s="16">
-        <f>'2014'!T3</f>
-        <v>2.7</v>
-      </c>
-      <c r="V32" s="16">
-        <f>'2014'!U3</f>
-        <v>75.66</v>
-      </c>
-      <c r="W32" s="16">
-        <f>'2014'!V3</f>
-        <v>41.15</v>
-      </c>
-      <c r="X32" s="16">
-        <f>'2014'!W3</f>
-        <v>5.0999999999999996</v>
+      <c r="C32" s="24">
+        <f>'2015'!B3</f>
+        <v>103.72</v>
+      </c>
+      <c r="D32" s="24">
+        <f>'2015'!C3</f>
+        <v>89.43</v>
+      </c>
+      <c r="E32" s="24">
+        <f>'2015'!D3</f>
+        <v>83.09</v>
+      </c>
+      <c r="F32" s="24">
+        <f>'2015'!E3</f>
+        <v>87.19</v>
+      </c>
+      <c r="G32" s="24">
+        <f>'2015'!F3</f>
+        <v>85.85</v>
+      </c>
+      <c r="H32" s="24">
+        <f>'2015'!G3</f>
+        <v>85.08</v>
+      </c>
+      <c r="I32" s="24">
+        <f>'2015'!H3</f>
+        <v>75</v>
+      </c>
+      <c r="J32" s="24">
+        <f>'2015'!I3</f>
+        <v>88.16</v>
+      </c>
+      <c r="K32" s="24">
+        <f>'2015'!K3</f>
+        <v>75.34</v>
+      </c>
+      <c r="L32" s="24">
+        <f>'2015'!L3</f>
+        <v>86.67</v>
+      </c>
+      <c r="M32" s="24">
+        <f>'2015'!M3</f>
+        <v>72.13</v>
+      </c>
+      <c r="N32" s="24">
+        <f>'2015'!N3</f>
+        <v>72.06</v>
+      </c>
+      <c r="O32" s="24">
+        <f>'2015'!O3</f>
+        <v>71.680000000000007</v>
+      </c>
+      <c r="P32" s="24">
+        <f>'2015'!P3</f>
+        <v>85.6</v>
+      </c>
+      <c r="Q32" s="24">
+        <f>'2015'!Q3</f>
+        <v>62.76</v>
+      </c>
+      <c r="R32" s="24">
+        <f>'2015'!R3</f>
+        <v>58.01</v>
+      </c>
+      <c r="S32" s="24">
+        <f>'2015'!S3</f>
+        <v>85.11</v>
+      </c>
+      <c r="T32" s="24">
+        <f>'2015'!T3</f>
+        <v>71.62</v>
+      </c>
+      <c r="U32" s="24">
+        <f>'2015'!U3</f>
+        <v>32.53</v>
+      </c>
+      <c r="V32" s="24">
+        <f>'2015'!V3</f>
+        <v>27.87</v>
+      </c>
+      <c r="W32" s="24">
+        <f>'2015'!W3</f>
+        <v>84.26</v>
+      </c>
+      <c r="X32" s="24">
+        <f>'2015'!Y3</f>
+        <v>83.05</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -4459,93 +4505,93 @@
       <c r="B33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="16">
-        <f>'2014'!B4</f>
-        <v>105.61</v>
-      </c>
-      <c r="D33" s="16">
-        <f>'2014'!C4</f>
-        <v>86.64</v>
-      </c>
-      <c r="E33" s="16">
-        <f>'2014'!D4</f>
-        <v>90.71</v>
-      </c>
-      <c r="F33" s="16">
-        <f>'2014'!E4</f>
-        <v>93.2</v>
-      </c>
-      <c r="G33" s="16">
-        <f>'2014'!F4</f>
-        <v>94.2</v>
-      </c>
-      <c r="H33" s="16">
-        <f>'2014'!G4</f>
-        <v>93.06</v>
-      </c>
-      <c r="I33" s="16">
-        <f>'2014'!H4</f>
-        <v>89.6</v>
-      </c>
-      <c r="J33" s="16">
-        <f>'2014'!I4</f>
-        <v>96.5</v>
-      </c>
-      <c r="K33" s="16">
-        <f>'2014'!J4</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="16">
-        <f>'2014'!K4</f>
-        <v>38.770000000000003</v>
-      </c>
-      <c r="M33" s="16">
-        <f>'2014'!L4</f>
-        <v>53.84</v>
-      </c>
-      <c r="N33" s="16">
-        <f>'2014'!M4</f>
-        <v>85.14</v>
-      </c>
-      <c r="O33" s="16">
-        <f>'2014'!N4</f>
-        <v>85.42</v>
-      </c>
-      <c r="P33" s="16">
-        <f>'2014'!O4</f>
-        <v>87.64</v>
-      </c>
-      <c r="Q33" s="16">
-        <f>'2014'!P4</f>
-        <v>116.89</v>
-      </c>
-      <c r="R33" s="16">
-        <f>'2014'!Q4</f>
-        <v>95.21</v>
-      </c>
-      <c r="S33" s="16">
-        <f>'2014'!R4</f>
-        <v>92.43</v>
-      </c>
-      <c r="T33" s="16">
-        <f>'2014'!S4</f>
-        <v>93.33</v>
-      </c>
-      <c r="U33" s="16">
-        <f>'2014'!T4</f>
-        <v>2.92</v>
-      </c>
-      <c r="V33" s="16">
-        <f>'2014'!U4</f>
-        <v>86.32</v>
-      </c>
-      <c r="W33" s="16">
-        <f>'2014'!V4</f>
-        <v>51.7</v>
-      </c>
-      <c r="X33" s="16">
-        <f>'2014'!W4</f>
-        <v>10.39</v>
+      <c r="C33" s="24">
+        <f>'2015'!B4</f>
+        <v>105.52</v>
+      </c>
+      <c r="D33" s="24">
+        <f>'2015'!C4</f>
+        <v>90.88</v>
+      </c>
+      <c r="E33" s="24">
+        <f>'2015'!D4</f>
+        <v>94.25</v>
+      </c>
+      <c r="F33" s="24">
+        <f>'2015'!E4</f>
+        <v>97.4</v>
+      </c>
+      <c r="G33" s="24">
+        <f>'2015'!F4</f>
+        <v>96.77</v>
+      </c>
+      <c r="H33" s="24">
+        <f>'2015'!G4</f>
+        <v>95.93</v>
+      </c>
+      <c r="I33" s="24">
+        <f>'2015'!H4</f>
+        <v>93.29</v>
+      </c>
+      <c r="J33" s="24">
+        <f>'2015'!I4</f>
+        <v>100.44</v>
+      </c>
+      <c r="K33" s="24">
+        <f>'2015'!K4</f>
+        <v>38.9</v>
+      </c>
+      <c r="L33" s="24">
+        <f>'2015'!L4</f>
+        <v>94.35</v>
+      </c>
+      <c r="M33" s="24">
+        <f>'2015'!M4</f>
+        <v>86.4</v>
+      </c>
+      <c r="N33" s="24">
+        <f>'2015'!N4</f>
+        <v>86.25</v>
+      </c>
+      <c r="O33" s="24">
+        <f>'2015'!O4</f>
+        <v>86.53</v>
+      </c>
+      <c r="P33" s="24">
+        <f>'2015'!P4</f>
+        <v>95.31</v>
+      </c>
+      <c r="Q33" s="24">
+        <f>'2015'!Q4</f>
+        <v>80.349999999999994</v>
+      </c>
+      <c r="R33" s="24">
+        <f>'2015'!R4</f>
+        <v>77.05</v>
+      </c>
+      <c r="S33" s="24">
+        <f>'2015'!S4</f>
+        <v>96.34</v>
+      </c>
+      <c r="T33" s="24">
+        <f>'2015'!T4</f>
+        <v>86.18</v>
+      </c>
+      <c r="U33" s="24">
+        <f>'2015'!U4</f>
+        <v>51.17</v>
+      </c>
+      <c r="V33" s="24">
+        <f>'2015'!V4</f>
+        <v>44.19</v>
+      </c>
+      <c r="W33" s="24">
+        <f>'2015'!W4</f>
+        <v>96</v>
+      </c>
+      <c r="X33" s="24">
+        <f>'2015'!Y4</f>
+        <v>95.4</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -4555,93 +4601,93 @@
       <c r="B34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="16">
-        <f>'2014'!B5</f>
-        <v>104.87</v>
-      </c>
-      <c r="D34" s="16">
-        <f>'2014'!C5</f>
-        <v>89.4</v>
-      </c>
-      <c r="E34" s="16">
-        <f>'2014'!D5</f>
-        <v>95.05</v>
-      </c>
-      <c r="F34" s="16">
-        <f>'2014'!E5</f>
-        <v>98.29</v>
-      </c>
-      <c r="G34" s="16">
-        <f>'2014'!F5</f>
-        <v>98.63</v>
-      </c>
-      <c r="H34" s="16">
-        <f>'2014'!G5</f>
-        <v>96.19</v>
-      </c>
-      <c r="I34" s="16">
-        <f>'2014'!H5</f>
-        <v>97.67</v>
-      </c>
-      <c r="J34" s="16">
-        <f>'2014'!I5</f>
-        <v>97.15</v>
-      </c>
-      <c r="K34" s="16">
-        <f>'2014'!J5</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="16">
-        <f>'2014'!K5</f>
-        <v>29.76</v>
-      </c>
-      <c r="M34" s="16">
-        <f>'2014'!L5</f>
-        <v>66.900000000000006</v>
-      </c>
-      <c r="N34" s="16">
-        <f>'2014'!M5</f>
-        <v>91.28</v>
-      </c>
-      <c r="O34" s="16">
-        <f>'2014'!N5</f>
-        <v>92.59</v>
-      </c>
-      <c r="P34" s="16">
-        <f>'2014'!O5</f>
-        <v>88.25</v>
-      </c>
-      <c r="Q34" s="16">
-        <f>'2014'!P5</f>
-        <v>107.61</v>
-      </c>
-      <c r="R34" s="16">
-        <f>'2014'!Q5</f>
-        <v>94.24</v>
-      </c>
-      <c r="S34" s="16">
-        <f>'2014'!R5</f>
-        <v>93.39</v>
-      </c>
-      <c r="T34" s="16">
-        <f>'2014'!S5</f>
-        <v>97.1</v>
-      </c>
-      <c r="U34" s="16">
-        <f>'2014'!T5</f>
-        <v>1.67</v>
-      </c>
-      <c r="V34" s="16">
-        <f>'2014'!U5</f>
-        <v>88.61</v>
-      </c>
-      <c r="W34" s="16">
-        <f>'2014'!V5</f>
-        <v>40.58</v>
-      </c>
-      <c r="X34" s="16">
-        <f>'2014'!W5</f>
-        <v>10.46</v>
+      <c r="C34" s="24">
+        <f>'2015'!B5</f>
+        <v>104.76</v>
+      </c>
+      <c r="D34" s="24">
+        <f>'2015'!C5</f>
+        <v>90.83</v>
+      </c>
+      <c r="E34" s="24">
+        <f>'2015'!D5</f>
+        <v>98.52</v>
+      </c>
+      <c r="F34" s="24">
+        <f>'2015'!E5</f>
+        <v>100.81</v>
+      </c>
+      <c r="G34" s="24">
+        <f>'2015'!F5</f>
+        <v>101.39</v>
+      </c>
+      <c r="H34" s="24">
+        <f>'2015'!G5</f>
+        <v>99.13</v>
+      </c>
+      <c r="I34" s="24">
+        <f>'2015'!H5</f>
+        <v>99.01</v>
+      </c>
+      <c r="J34" s="24">
+        <f>'2015'!I5</f>
+        <v>100.52</v>
+      </c>
+      <c r="K34" s="24">
+        <f>'2015'!K5</f>
+        <v>31.17</v>
+      </c>
+      <c r="L34" s="24">
+        <f>'2015'!L5</f>
+        <v>101.02</v>
+      </c>
+      <c r="M34" s="24">
+        <f>'2015'!M5</f>
+        <v>92.9</v>
+      </c>
+      <c r="N34" s="24">
+        <f>'2015'!N5</f>
+        <v>93.07</v>
+      </c>
+      <c r="O34" s="24">
+        <f>'2015'!O5</f>
+        <v>88.5</v>
+      </c>
+      <c r="P34" s="24">
+        <f>'2015'!P5</f>
+        <v>99.92</v>
+      </c>
+      <c r="Q34" s="24">
+        <f>'2015'!Q5</f>
+        <v>86.97</v>
+      </c>
+      <c r="R34" s="24">
+        <f>'2015'!R5</f>
+        <v>86.98</v>
+      </c>
+      <c r="S34" s="24">
+        <f>'2015'!S5</f>
+        <v>100.05</v>
+      </c>
+      <c r="T34" s="24">
+        <f>'2015'!T5</f>
+        <v>90.23</v>
+      </c>
+      <c r="U34" s="24">
+        <f>'2015'!U5</f>
+        <v>50.35</v>
+      </c>
+      <c r="V34" s="24">
+        <f>'2015'!V5</f>
+        <v>53.97</v>
+      </c>
+      <c r="W34" s="24">
+        <f>'2015'!W5</f>
+        <v>97.94</v>
+      </c>
+      <c r="X34" s="24">
+        <f>'2015'!Y5</f>
+        <v>98.51</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -4651,93 +4697,93 @@
       <c r="B35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="16">
-        <f>'2014'!B6</f>
-        <v>106.92</v>
-      </c>
-      <c r="D35" s="16">
-        <f>'2014'!C6</f>
-        <v>81.81</v>
-      </c>
-      <c r="E35" s="16">
-        <f>'2014'!D6</f>
-        <v>97.18</v>
-      </c>
-      <c r="F35" s="16">
-        <f>'2014'!E6</f>
-        <v>100.58</v>
-      </c>
-      <c r="G35" s="16">
-        <f>'2014'!F6</f>
-        <v>98.39</v>
-      </c>
-      <c r="H35" s="16">
-        <f>'2014'!G6</f>
-        <v>97.36</v>
-      </c>
-      <c r="I35" s="16">
-        <f>'2014'!H6</f>
-        <v>97.9</v>
-      </c>
-      <c r="J35" s="16">
-        <f>'2014'!I6</f>
-        <v>97.18</v>
-      </c>
-      <c r="K35" s="16">
-        <f>'2014'!J6</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="16">
-        <f>'2014'!K6</f>
-        <v>57.33</v>
-      </c>
-      <c r="M35" s="16">
-        <f>'2014'!L6</f>
-        <v>66.290000000000006</v>
-      </c>
-      <c r="N35" s="16">
-        <f>'2014'!M6</f>
-        <v>92.05</v>
-      </c>
-      <c r="O35" s="16">
-        <f>'2014'!N6</f>
-        <v>92.21</v>
-      </c>
-      <c r="P35" s="16">
-        <f>'2014'!O6</f>
-        <v>83.34</v>
-      </c>
-      <c r="Q35" s="16">
-        <f>'2014'!P6</f>
-        <v>111.04</v>
-      </c>
-      <c r="R35" s="16">
-        <f>'2014'!Q6</f>
-        <v>92.08</v>
-      </c>
-      <c r="S35" s="16">
-        <f>'2014'!R6</f>
-        <v>87.04</v>
-      </c>
-      <c r="T35" s="16">
-        <f>'2014'!S6</f>
-        <v>98.06</v>
-      </c>
-      <c r="U35" s="16">
-        <f>'2014'!T6</f>
-        <v>2.71</v>
-      </c>
-      <c r="V35" s="16">
-        <f>'2014'!U6</f>
-        <v>85.15</v>
-      </c>
-      <c r="W35" s="16">
-        <f>'2014'!V6</f>
-        <v>34.700000000000003</v>
-      </c>
-      <c r="X35" s="16">
-        <f>'2014'!W6</f>
-        <v>6.47</v>
+      <c r="C35" s="24">
+        <f>'2015'!B6</f>
+        <v>106</v>
+      </c>
+      <c r="D35" s="24">
+        <f>'2015'!C6</f>
+        <v>89.86</v>
+      </c>
+      <c r="E35" s="24">
+        <f>'2015'!D6</f>
+        <v>98.23</v>
+      </c>
+      <c r="F35" s="24">
+        <f>'2015'!E6</f>
+        <v>101.48</v>
+      </c>
+      <c r="G35" s="24">
+        <f>'2015'!F6</f>
+        <v>99.2</v>
+      </c>
+      <c r="H35" s="24">
+        <f>'2015'!G6</f>
+        <v>98.4</v>
+      </c>
+      <c r="I35" s="24">
+        <f>'2015'!H6</f>
+        <v>98.44</v>
+      </c>
+      <c r="J35" s="24">
+        <f>'2015'!I6</f>
+        <v>95.57</v>
+      </c>
+      <c r="K35" s="24">
+        <f>'2015'!K6</f>
+        <v>58.07</v>
+      </c>
+      <c r="L35" s="24">
+        <f>'2015'!L6</f>
+        <v>101.63</v>
+      </c>
+      <c r="M35" s="24">
+        <f>'2015'!M6</f>
+        <v>92.51</v>
+      </c>
+      <c r="N35" s="24">
+        <f>'2015'!N6</f>
+        <v>90.23</v>
+      </c>
+      <c r="O35" s="24">
+        <f>'2015'!O6</f>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="P35" s="24">
+        <f>'2015'!P6</f>
+        <v>96.12</v>
+      </c>
+      <c r="Q35" s="24">
+        <f>'2015'!Q6</f>
+        <v>76.540000000000006</v>
+      </c>
+      <c r="R35" s="24">
+        <f>'2015'!R6</f>
+        <v>70.69</v>
+      </c>
+      <c r="S35" s="24">
+        <f>'2015'!S6</f>
+        <v>98.93</v>
+      </c>
+      <c r="T35" s="24">
+        <f>'2015'!T6</f>
+        <v>84.41</v>
+      </c>
+      <c r="U35" s="24">
+        <f>'2015'!U6</f>
+        <v>31.42</v>
+      </c>
+      <c r="V35" s="24">
+        <f>'2015'!V6</f>
+        <v>35.630000000000003</v>
+      </c>
+      <c r="W35" s="24">
+        <f>'2015'!W6</f>
+        <v>97.57</v>
+      </c>
+      <c r="X35" s="24">
+        <f>'2015'!Y6</f>
+        <v>94.24</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
@@ -4747,93 +4793,93 @@
       <c r="B36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="16">
-        <f>'2014'!B7</f>
-        <v>116.9</v>
-      </c>
-      <c r="D36" s="16">
-        <f>'2014'!C7</f>
-        <v>98.41</v>
-      </c>
-      <c r="E36" s="16">
-        <f>'2014'!D7</f>
-        <v>101.58</v>
-      </c>
-      <c r="F36" s="16">
-        <f>'2014'!E7</f>
-        <v>104.38</v>
-      </c>
-      <c r="G36" s="16">
-        <f>'2014'!F7</f>
-        <v>102.87</v>
-      </c>
-      <c r="H36" s="16">
-        <f>'2014'!G7</f>
-        <v>101.62</v>
-      </c>
-      <c r="I36" s="16">
-        <f>'2014'!H7</f>
-        <v>101.42</v>
-      </c>
-      <c r="J36" s="16">
-        <f>'2014'!I7</f>
-        <v>104.05</v>
-      </c>
-      <c r="K36" s="16">
-        <f>'2014'!J7</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="16">
-        <f>'2014'!K7</f>
-        <v>99.58</v>
-      </c>
-      <c r="M36" s="16">
-        <f>'2014'!L7</f>
-        <v>70.72</v>
-      </c>
-      <c r="N36" s="16">
-        <f>'2014'!M7</f>
-        <v>95.23</v>
-      </c>
-      <c r="O36" s="16">
-        <f>'2014'!N7</f>
-        <v>93.78</v>
-      </c>
-      <c r="P36" s="16">
-        <f>'2014'!O7</f>
-        <v>91.5</v>
-      </c>
-      <c r="Q36" s="16">
-        <f>'2014'!P7</f>
-        <v>122.52</v>
-      </c>
-      <c r="R36" s="16">
-        <f>'2014'!Q7</f>
-        <v>99.27</v>
-      </c>
-      <c r="S36" s="16">
-        <f>'2014'!R7</f>
-        <v>93.63</v>
-      </c>
-      <c r="T36" s="16">
-        <f>'2014'!S7</f>
-        <v>102.71</v>
-      </c>
-      <c r="U36" s="16">
-        <f>'2014'!T7</f>
-        <v>2.9</v>
-      </c>
-      <c r="V36" s="16">
-        <f>'2014'!U7</f>
-        <v>91.59</v>
-      </c>
-      <c r="W36" s="16">
-        <f>'2014'!V7</f>
-        <v>46.2</v>
-      </c>
-      <c r="X36" s="16">
-        <f>'2014'!W7</f>
-        <v>10.44</v>
+      <c r="C36" s="24">
+        <f>'2015'!B7</f>
+        <v>105.44</v>
+      </c>
+      <c r="D36" s="24">
+        <f>'2015'!C7</f>
+        <v>95.38</v>
+      </c>
+      <c r="E36" s="24">
+        <f>'2015'!D7</f>
+        <v>95.27</v>
+      </c>
+      <c r="F36" s="24">
+        <f>'2015'!E7</f>
+        <v>97.35</v>
+      </c>
+      <c r="G36" s="24">
+        <f>'2015'!F7</f>
+        <v>96.77</v>
+      </c>
+      <c r="H36" s="24">
+        <f>'2015'!G7</f>
+        <v>95.17</v>
+      </c>
+      <c r="I36" s="24">
+        <f>'2015'!H7</f>
+        <v>92.76</v>
+      </c>
+      <c r="J36" s="24">
+        <f>'2015'!I7</f>
+        <v>97.88</v>
+      </c>
+      <c r="K36" s="24">
+        <f>'2015'!K7</f>
+        <v>87.17</v>
+      </c>
+      <c r="L36" s="24">
+        <f>'2015'!L7</f>
+        <v>93.56</v>
+      </c>
+      <c r="M36" s="24">
+        <f>'2015'!M7</f>
+        <v>87.73</v>
+      </c>
+      <c r="N36" s="24">
+        <f>'2015'!N7</f>
+        <v>85.06</v>
+      </c>
+      <c r="O36" s="24">
+        <f>'2015'!O7</f>
+        <v>82.42</v>
+      </c>
+      <c r="P36" s="24">
+        <f>'2015'!P7</f>
+        <v>93.73</v>
+      </c>
+      <c r="Q36" s="24">
+        <f>'2015'!Q7</f>
+        <v>72.569999999999993</v>
+      </c>
+      <c r="R36" s="24">
+        <f>'2015'!R7</f>
+        <v>68.23</v>
+      </c>
+      <c r="S36" s="24">
+        <f>'2015'!S7</f>
+        <v>95.75</v>
+      </c>
+      <c r="T36" s="24">
+        <f>'2015'!T7</f>
+        <v>83.68</v>
+      </c>
+      <c r="U36" s="24">
+        <f>'2015'!U7</f>
+        <v>43.37</v>
+      </c>
+      <c r="V36" s="24">
+        <f>'2015'!V7</f>
+        <v>41.87</v>
+      </c>
+      <c r="W36" s="24">
+        <f>'2015'!W7</f>
+        <v>93.21</v>
+      </c>
+      <c r="X36" s="24">
+        <f>'2015'!Y7</f>
+        <v>94.42</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -5329,7 +5375,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7992,582 +8038,643 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EFC708-2FE7-4C7C-8836-84ECA9730969}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:Y7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="9"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="19">
+        <v>105.08</v>
+      </c>
+      <c r="C2" s="19">
+        <v>90.93</v>
+      </c>
+      <c r="D2" s="19">
+        <v>95.35</v>
+      </c>
+      <c r="E2" s="19">
+        <v>98.19</v>
+      </c>
+      <c r="F2" s="19">
+        <v>97.74</v>
+      </c>
+      <c r="G2" s="19">
+        <v>96.3</v>
+      </c>
+      <c r="H2" s="19">
+        <v>94.23</v>
+      </c>
+      <c r="I2" s="19">
+        <v>98.29</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
+        <v>46.31</v>
+      </c>
+      <c r="L2" s="19">
+        <v>97.07</v>
+      </c>
+      <c r="M2" s="19">
+        <v>88.35</v>
+      </c>
+      <c r="N2" s="19">
+        <v>87.85</v>
+      </c>
+      <c r="O2" s="19">
+        <v>84.52</v>
+      </c>
+      <c r="P2" s="19">
+        <v>96.07</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>79.94</v>
+      </c>
+      <c r="R2" s="19">
+        <v>77.37</v>
+      </c>
+      <c r="S2" s="19">
+        <v>96.9</v>
+      </c>
+      <c r="T2" s="19">
+        <v>85.78</v>
+      </c>
+      <c r="U2" s="19">
+        <v>45.57</v>
+      </c>
+      <c r="V2" s="19">
+        <v>44.97</v>
+      </c>
+      <c r="W2" s="19">
+        <v>95.49</v>
+      </c>
+      <c r="X2" s="19">
+        <v>196.58</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>95.07</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="23">
+        <v>103.72</v>
+      </c>
+      <c r="C3" s="23">
+        <v>89.43</v>
+      </c>
+      <c r="D3" s="23">
+        <v>83.09</v>
+      </c>
+      <c r="E3" s="23">
+        <v>87.19</v>
+      </c>
+      <c r="F3" s="23">
+        <v>85.85</v>
+      </c>
+      <c r="G3" s="23">
+        <v>85.08</v>
+      </c>
+      <c r="H3" s="23">
+        <v>75</v>
+      </c>
+      <c r="I3" s="23">
+        <v>88.16</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
+        <v>75.34</v>
+      </c>
+      <c r="L3" s="23">
+        <v>86.67</v>
+      </c>
+      <c r="M3" s="23">
+        <v>72.13</v>
+      </c>
+      <c r="N3" s="23">
+        <v>72.06</v>
+      </c>
+      <c r="O3" s="23">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="P3" s="23">
+        <v>85.6</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>62.76</v>
+      </c>
+      <c r="R3" s="23">
+        <v>58.01</v>
+      </c>
+      <c r="S3" s="23">
+        <v>85.11</v>
+      </c>
+      <c r="T3" s="23">
+        <v>71.62</v>
+      </c>
+      <c r="U3" s="23">
+        <v>32.53</v>
+      </c>
+      <c r="V3" s="23">
+        <v>27.87</v>
+      </c>
+      <c r="W3" s="23">
+        <v>84.26</v>
+      </c>
+      <c r="X3" s="23">
+        <v>170.83</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>83.05</v>
+      </c>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="19">
+        <v>105.52</v>
+      </c>
+      <c r="C4" s="19">
+        <v>90.88</v>
+      </c>
+      <c r="D4" s="19">
+        <v>94.25</v>
+      </c>
+      <c r="E4" s="19">
+        <v>97.4</v>
+      </c>
+      <c r="F4" s="19">
+        <v>96.77</v>
+      </c>
+      <c r="G4" s="19">
+        <v>95.93</v>
+      </c>
+      <c r="H4" s="19">
+        <v>93.29</v>
+      </c>
+      <c r="I4" s="19">
+        <v>100.44</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>38.9</v>
+      </c>
+      <c r="L4" s="19">
+        <v>94.35</v>
+      </c>
+      <c r="M4" s="19">
+        <v>86.4</v>
+      </c>
+      <c r="N4" s="19">
+        <v>86.25</v>
+      </c>
+      <c r="O4" s="19">
+        <v>86.53</v>
+      </c>
+      <c r="P4" s="19">
+        <v>95.31</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="R4" s="19">
+        <v>77.05</v>
+      </c>
+      <c r="S4" s="19">
+        <v>96.34</v>
+      </c>
+      <c r="T4" s="19">
+        <v>86.18</v>
+      </c>
+      <c r="U4" s="19">
+        <v>51.17</v>
+      </c>
+      <c r="V4" s="19">
+        <v>44.19</v>
+      </c>
+      <c r="W4" s="19">
+        <v>96</v>
+      </c>
+      <c r="X4" s="19">
+        <v>202.5</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>95.4</v>
+      </c>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="23">
+        <v>104.76</v>
+      </c>
+      <c r="C5" s="23">
+        <v>90.83</v>
+      </c>
+      <c r="D5" s="23">
+        <v>98.52</v>
+      </c>
+      <c r="E5" s="23">
+        <v>100.81</v>
+      </c>
+      <c r="F5" s="23">
+        <v>101.39</v>
+      </c>
+      <c r="G5" s="23">
+        <v>99.13</v>
+      </c>
+      <c r="H5" s="23">
+        <v>99.01</v>
+      </c>
+      <c r="I5" s="23">
+        <v>100.52</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <v>31.17</v>
+      </c>
+      <c r="L5" s="23">
+        <v>101.02</v>
+      </c>
+      <c r="M5" s="23">
+        <v>92.9</v>
+      </c>
+      <c r="N5" s="23">
+        <v>93.07</v>
+      </c>
+      <c r="O5" s="23">
+        <v>88.5</v>
+      </c>
+      <c r="P5" s="23">
+        <v>99.92</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>86.97</v>
+      </c>
+      <c r="R5" s="23">
+        <v>86.98</v>
+      </c>
+      <c r="S5" s="23">
+        <v>100.05</v>
+      </c>
+      <c r="T5" s="23">
+        <v>90.23</v>
+      </c>
+      <c r="U5" s="23">
+        <v>50.35</v>
+      </c>
+      <c r="V5" s="23">
+        <v>53.97</v>
+      </c>
+      <c r="W5" s="23">
+        <v>97.94</v>
+      </c>
+      <c r="X5" s="23">
+        <v>202.63</v>
+      </c>
+      <c r="Y5" s="23">
+        <v>98.51</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="19">
+        <v>106</v>
+      </c>
+      <c r="C6" s="19">
+        <v>89.86</v>
+      </c>
+      <c r="D6" s="19">
+        <v>98.23</v>
+      </c>
+      <c r="E6" s="19">
+        <v>101.48</v>
+      </c>
+      <c r="F6" s="19">
+        <v>99.2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>98.4</v>
+      </c>
+      <c r="H6" s="19">
+        <v>98.44</v>
+      </c>
+      <c r="I6" s="19">
+        <v>95.57</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>58.07</v>
+      </c>
+      <c r="L6" s="19">
+        <v>101.63</v>
+      </c>
+      <c r="M6" s="19">
+        <v>92.51</v>
+      </c>
+      <c r="N6" s="19">
+        <v>90.23</v>
+      </c>
+      <c r="O6" s="19">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="P6" s="19">
+        <v>96.12</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="R6" s="19">
+        <v>70.69</v>
+      </c>
+      <c r="S6" s="19">
+        <v>98.93</v>
+      </c>
+      <c r="T6" s="19">
+        <v>84.41</v>
+      </c>
+      <c r="U6" s="19">
+        <v>31.42</v>
+      </c>
+      <c r="V6" s="19">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="W6" s="19">
+        <v>97.57</v>
+      </c>
+      <c r="X6" s="19">
+        <v>191.05</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>94.24</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="21">
+        <v>105.44</v>
+      </c>
+      <c r="C7" s="21">
+        <v>95.38</v>
+      </c>
+      <c r="D7" s="21">
+        <v>95.27</v>
+      </c>
+      <c r="E7" s="21">
+        <v>97.35</v>
+      </c>
+      <c r="F7" s="21">
+        <v>96.77</v>
+      </c>
+      <c r="G7" s="21">
+        <v>95.17</v>
+      </c>
+      <c r="H7" s="21">
+        <v>92.76</v>
+      </c>
+      <c r="I7" s="21">
+        <v>97.88</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>87.17</v>
+      </c>
+      <c r="L7" s="21">
+        <v>93.56</v>
+      </c>
+      <c r="M7" s="21">
+        <v>87.73</v>
+      </c>
+      <c r="N7" s="21">
+        <v>85.06</v>
+      </c>
+      <c r="O7" s="21">
+        <v>82.42</v>
+      </c>
+      <c r="P7" s="21">
+        <v>93.73</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="R7" s="21">
+        <v>68.23</v>
+      </c>
+      <c r="S7" s="21">
+        <v>95.75</v>
+      </c>
+      <c r="T7" s="21">
+        <v>83.68</v>
+      </c>
+      <c r="U7" s="21">
+        <v>43.37</v>
+      </c>
+      <c r="V7" s="21">
+        <v>41.87</v>
+      </c>
+      <c r="W7" s="21">
+        <v>93.21</v>
+      </c>
+      <c r="X7" s="21">
+        <v>186.86</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>94.42</v>
+      </c>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="7">
-        <v>105.08</v>
-      </c>
-      <c r="C2" s="7">
-        <v>90.93</v>
-      </c>
-      <c r="D2" s="7">
-        <v>95.35</v>
-      </c>
-      <c r="E2" s="7">
-        <v>98.19</v>
-      </c>
-      <c r="F2" s="7">
-        <v>97.74</v>
-      </c>
-      <c r="G2" s="7">
-        <v>96.3</v>
-      </c>
-      <c r="H2" s="7">
-        <v>94.23</v>
-      </c>
-      <c r="I2" s="7">
-        <v>98.29</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>46.31</v>
-      </c>
-      <c r="L2" s="7">
-        <v>97.07</v>
-      </c>
-      <c r="M2" s="7">
-        <v>88.35</v>
-      </c>
-      <c r="N2" s="7">
-        <v>87.85</v>
-      </c>
-      <c r="O2" s="7">
-        <v>84.52</v>
-      </c>
-      <c r="P2" s="7">
-        <v>96.07</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>79.94</v>
-      </c>
-      <c r="R2" s="7">
-        <v>77.37</v>
-      </c>
-      <c r="S2" s="7">
-        <v>96.9</v>
-      </c>
-      <c r="T2" s="7">
-        <v>85.78</v>
-      </c>
-      <c r="U2" s="7">
-        <v>45.57</v>
-      </c>
-      <c r="V2" s="7">
-        <v>44.97</v>
-      </c>
-      <c r="W2" s="7">
-        <v>95.49</v>
-      </c>
-      <c r="X2" s="7">
-        <v>196.58</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>95.07</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7">
-        <v>103.72</v>
-      </c>
-      <c r="C3" s="7">
-        <v>89.43</v>
-      </c>
-      <c r="D3" s="7">
-        <v>83.09</v>
-      </c>
-      <c r="E3" s="7">
-        <v>87.19</v>
-      </c>
-      <c r="F3" s="7">
-        <v>85.85</v>
-      </c>
-      <c r="G3" s="7">
-        <v>85.08</v>
-      </c>
-      <c r="H3" s="7">
-        <v>75</v>
-      </c>
-      <c r="I3" s="7">
-        <v>88.16</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>75.34</v>
-      </c>
-      <c r="L3" s="7">
-        <v>86.67</v>
-      </c>
-      <c r="M3" s="7">
-        <v>72.13</v>
-      </c>
-      <c r="N3" s="7">
-        <v>72.06</v>
-      </c>
-      <c r="O3" s="7">
-        <v>71.680000000000007</v>
-      </c>
-      <c r="P3" s="7">
-        <v>85.6</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>62.76</v>
-      </c>
-      <c r="R3" s="7">
-        <v>58.01</v>
-      </c>
-      <c r="S3" s="7">
-        <v>85.11</v>
-      </c>
-      <c r="T3" s="7">
-        <v>71.62</v>
-      </c>
-      <c r="U3" s="7">
-        <v>32.53</v>
-      </c>
-      <c r="V3" s="7">
-        <v>27.87</v>
-      </c>
-      <c r="W3" s="7">
-        <v>84.26</v>
-      </c>
-      <c r="X3" s="7">
-        <v>170.83</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>83.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7">
-        <v>105.52</v>
-      </c>
-      <c r="C4" s="7">
-        <v>90.88</v>
-      </c>
-      <c r="D4" s="7">
-        <v>94.25</v>
-      </c>
-      <c r="E4" s="7">
-        <v>97.4</v>
-      </c>
-      <c r="F4" s="7">
-        <v>96.77</v>
-      </c>
-      <c r="G4" s="7">
-        <v>95.93</v>
-      </c>
-      <c r="H4" s="7">
-        <v>93.29</v>
-      </c>
-      <c r="I4" s="7">
-        <v>100.44</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>38.9</v>
-      </c>
-      <c r="L4" s="7">
-        <v>94.35</v>
-      </c>
-      <c r="M4" s="7">
-        <v>86.4</v>
-      </c>
-      <c r="N4" s="7">
-        <v>86.25</v>
-      </c>
-      <c r="O4" s="7">
-        <v>86.53</v>
-      </c>
-      <c r="P4" s="7">
-        <v>95.31</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>80.349999999999994</v>
-      </c>
-      <c r="R4" s="7">
-        <v>77.05</v>
-      </c>
-      <c r="S4" s="7">
-        <v>96.34</v>
-      </c>
-      <c r="T4" s="7">
-        <v>86.18</v>
-      </c>
-      <c r="U4" s="7">
-        <v>51.17</v>
-      </c>
-      <c r="V4" s="7">
-        <v>44.19</v>
-      </c>
-      <c r="W4" s="7">
-        <v>96</v>
-      </c>
-      <c r="X4" s="7">
-        <v>202.5</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>95.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7">
-        <v>104.76</v>
-      </c>
-      <c r="C5" s="7">
-        <v>90.83</v>
-      </c>
-      <c r="D5" s="7">
-        <v>98.52</v>
-      </c>
-      <c r="E5" s="7">
-        <v>100.81</v>
-      </c>
-      <c r="F5" s="7">
-        <v>101.39</v>
-      </c>
-      <c r="G5" s="7">
-        <v>99.13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>99.01</v>
-      </c>
-      <c r="I5" s="7">
-        <v>100.52</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>31.17</v>
-      </c>
-      <c r="L5" s="7">
-        <v>101.02</v>
-      </c>
-      <c r="M5" s="7">
-        <v>92.9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>93.07</v>
-      </c>
-      <c r="O5" s="7">
-        <v>88.5</v>
-      </c>
-      <c r="P5" s="7">
-        <v>99.92</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>86.97</v>
-      </c>
-      <c r="R5" s="7">
-        <v>86.98</v>
-      </c>
-      <c r="S5" s="7">
-        <v>100.05</v>
-      </c>
-      <c r="T5" s="7">
-        <v>90.23</v>
-      </c>
-      <c r="U5" s="7">
-        <v>50.35</v>
-      </c>
-      <c r="V5" s="7">
-        <v>53.97</v>
-      </c>
-      <c r="W5" s="7">
-        <v>97.94</v>
-      </c>
-      <c r="X5" s="7">
-        <v>202.63</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>98.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7">
-        <v>106</v>
-      </c>
-      <c r="C6" s="7">
-        <v>89.86</v>
-      </c>
-      <c r="D6" s="7">
-        <v>98.23</v>
-      </c>
-      <c r="E6" s="7">
-        <v>101.48</v>
-      </c>
-      <c r="F6" s="7">
-        <v>99.2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>98.4</v>
-      </c>
-      <c r="H6" s="7">
-        <v>98.44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>95.57</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>58.07</v>
-      </c>
-      <c r="L6" s="7">
-        <v>101.63</v>
-      </c>
-      <c r="M6" s="7">
-        <v>92.51</v>
-      </c>
-      <c r="N6" s="7">
-        <v>90.23</v>
-      </c>
-      <c r="O6" s="7">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="P6" s="7">
-        <v>96.12</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>76.540000000000006</v>
-      </c>
-      <c r="R6" s="7">
-        <v>70.69</v>
-      </c>
-      <c r="S6" s="7">
-        <v>98.93</v>
-      </c>
-      <c r="T6" s="7">
-        <v>84.41</v>
-      </c>
-      <c r="U6" s="7">
-        <v>31.42</v>
-      </c>
-      <c r="V6" s="7">
-        <v>35.630000000000003</v>
-      </c>
-      <c r="W6" s="7">
-        <v>97.57</v>
-      </c>
-      <c r="X6" s="7">
-        <v>191.05</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>94.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7">
-        <v>105.44</v>
-      </c>
-      <c r="C7" s="7">
-        <v>95.38</v>
-      </c>
-      <c r="D7" s="7">
-        <v>95.27</v>
-      </c>
-      <c r="E7" s="7">
-        <v>97.35</v>
-      </c>
-      <c r="F7" s="7">
-        <v>96.77</v>
-      </c>
-      <c r="G7" s="7">
-        <v>95.17</v>
-      </c>
-      <c r="H7" s="7">
-        <v>92.76</v>
-      </c>
-      <c r="I7" s="7">
-        <v>97.88</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>87.17</v>
-      </c>
-      <c r="L7" s="7">
-        <v>93.56</v>
-      </c>
-      <c r="M7" s="7">
-        <v>87.73</v>
-      </c>
-      <c r="N7" s="7">
-        <v>85.06</v>
-      </c>
-      <c r="O7" s="7">
-        <v>82.42</v>
-      </c>
-      <c r="P7" s="7">
-        <v>93.73</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>72.569999999999993</v>
-      </c>
-      <c r="R7" s="7">
-        <v>68.23</v>
-      </c>
-      <c r="S7" s="7">
-        <v>95.75</v>
-      </c>
-      <c r="T7" s="7">
-        <v>83.68</v>
-      </c>
-      <c r="U7" s="7">
-        <v>43.37</v>
-      </c>
-      <c r="V7" s="7">
-        <v>41.87</v>
-      </c>
-      <c r="W7" s="7">
-        <v>93.21</v>
-      </c>
-      <c r="X7" s="7">
-        <v>186.86</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>94.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8593,8 +8700,10 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8620,8 +8729,10 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8647,8 +8758,10 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8674,8 +8787,10 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8701,8 +8816,10 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8728,8 +8845,10 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8755,8 +8874,10 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8782,8 +8903,10 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -8809,8 +8932,10 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -8836,8 +8961,10 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8863,8 +8990,10 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -8890,8 +9019,10 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -8917,8 +9048,10 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -8944,8 +9077,10 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8971,8 +9106,10 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -8998,8 +9135,10 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9025,8 +9164,10 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -9052,8 +9193,10 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9079,8 +9222,10 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9106,8 +9251,10 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -9133,9 +9280,12 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9144,7 +9294,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9715,32 +9865,75 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -10339,7 +10532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F534600-D527-42CF-9DCD-2C6F02C7FEC0}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/dados/TABNET/Vacinas/Cobertura/cobertura_por_ano_e_uf.xlsx
+++ b/dados/TABNET/Vacinas/Cobertura/cobertura_por_ano_e_uf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Projetos Dados\Data Science\Bootcamp-Data-Science-Aplicada-2020\dados\TABNET\Vacinas\Cobertura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297058B7-0106-4197-92FF-6542E3E899FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8457A3BE-8CBA-4D40-993B-3EDC3BE5C319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{3361C14A-FD23-4A12-B780-3BFE71077A47}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3361C14A-FD23-4A12-B780-3BFE71077A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Cobertura_por_ano" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="30">
   <si>
     <t>BCG</t>
   </si>
@@ -135,12 +135,6 @@
   </si>
   <si>
     <t>DTP</t>
-  </si>
-  <si>
-    <t>Tetravalente (DTP/Hib) (TETRA)</t>
-  </si>
-  <si>
-    <t>Ignorado</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1080,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{389C48DA-9062-47FB-A3BC-E469E5B6E70F}" name="Tabela1" displayName="Tabela1" ref="A1:X41" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
-  <autoFilter ref="A1:X41" xr:uid="{911B5387-8E7E-4C09-ACF2-D49FC8AD185D}"/>
+  <autoFilter ref="A1:X41" xr:uid="{911B5387-8E7E-4C09-ACF2-D49FC8AD185D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2013"/>
+        <filter val="2014"/>
+        <filter val="2015"/>
+        <filter val="2016"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{E8DC73BE-697A-4F57-9849-DA9BA5167AF1}" name="Ano" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{E5611F76-F1B4-40BD-92CD-4F4DBF50DBBE}" name="Região" dataDxfId="22"/>
@@ -1416,9 +1419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FDD6BA-E541-4817-B1C0-A6AF808C03DB}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22:X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,7 +1525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>2020</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2020</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>52.98</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2020</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>59.27</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>2020</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>67.62</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2020</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>65.11</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>2019</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>72.77</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>2019</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>69.239999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2019</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>72.72</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2019</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>81.92</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2019</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>78.180000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>2018</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>69.14</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>2018</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>74.040000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>2018</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>79.06</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>2018</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>2018</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>81.87</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>2017</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>66.239999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>2017</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>2017</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>74.63</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>2017</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>77.430000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>2017</v>
       </c>
@@ -3483,39 +3486,39 @@
       </c>
       <c r="K22" s="16">
         <f>'2016'!J3</f>
-        <v>72.56</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16">
         <f>'2016'!K3</f>
-        <v>65.3</v>
+        <v>72.56</v>
       </c>
       <c r="M22" s="16">
         <f>'2016'!L3</f>
-        <v>71.77</v>
+        <v>65.3</v>
       </c>
       <c r="N22" s="16">
         <f>'2016'!M3</f>
-        <v>85.74</v>
+        <v>71.77</v>
       </c>
       <c r="O22" s="16">
         <f>'2016'!N3</f>
-        <v>57.34</v>
+        <v>85.74</v>
       </c>
       <c r="P22" s="16">
         <f>'2016'!O3</f>
-        <v>80.760000000000005</v>
+        <v>57.34</v>
       </c>
       <c r="Q22" s="16">
         <f>'2016'!P3</f>
-        <v>72.459999999999994</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="R22" s="16">
         <f>'2016'!Q3</f>
-        <v>72.62</v>
+        <v>72.459999999999994</v>
       </c>
       <c r="S22" s="16">
         <f>'2016'!R3</f>
-        <v>78.28</v>
+        <v>72.62</v>
       </c>
       <c r="T22" s="16">
         <f>'2016'!S3</f>
@@ -3535,7 +3538,7 @@
       </c>
       <c r="X22" s="16">
         <f>'2016'!W3</f>
-        <v>5.31</v>
+        <v>48.22</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -3579,39 +3582,39 @@
       </c>
       <c r="K23" s="16">
         <f>'2016'!J4</f>
-        <v>33.76</v>
+        <v>0</v>
       </c>
       <c r="L23" s="16">
         <f>'2016'!K4</f>
-        <v>70.12</v>
+        <v>33.76</v>
       </c>
       <c r="M23" s="16">
         <f>'2016'!L4</f>
-        <v>81.290000000000006</v>
+        <v>70.12</v>
       </c>
       <c r="N23" s="16">
         <f>'2016'!M4</f>
-        <v>93.05</v>
+        <v>81.290000000000006</v>
       </c>
       <c r="O23" s="16">
         <f>'2016'!N4</f>
-        <v>68.97</v>
+        <v>93.05</v>
       </c>
       <c r="P23" s="16">
         <f>'2016'!O4</f>
-        <v>97.21</v>
+        <v>68.97</v>
       </c>
       <c r="Q23" s="16">
         <f>'2016'!P4</f>
-        <v>62.94</v>
+        <v>97.21</v>
       </c>
       <c r="R23" s="16">
         <f>'2016'!Q4</f>
-        <v>66.2</v>
+        <v>62.94</v>
       </c>
       <c r="S23" s="16">
         <f>'2016'!R4</f>
-        <v>86.56</v>
+        <v>66.2</v>
       </c>
       <c r="T23" s="16">
         <f>'2016'!S4</f>
@@ -3631,7 +3634,7 @@
       </c>
       <c r="X23" s="16">
         <f>'2016'!W4</f>
-        <v>6.02</v>
+        <v>47.96</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -3675,39 +3678,39 @@
       </c>
       <c r="K24" s="16">
         <f>'2016'!J5</f>
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16">
         <f>'2016'!K5</f>
-        <v>70.52</v>
+        <v>29.5</v>
       </c>
       <c r="M24" s="16">
         <f>'2016'!L5</f>
-        <v>86.99</v>
+        <v>70.52</v>
       </c>
       <c r="N24" s="16">
         <f>'2016'!M5</f>
-        <v>91.46</v>
+        <v>86.99</v>
       </c>
       <c r="O24" s="16">
         <f>'2016'!N5</f>
-        <v>78.05</v>
+        <v>91.46</v>
       </c>
       <c r="P24" s="16">
         <f>'2016'!O5</f>
-        <v>98.07</v>
+        <v>78.05</v>
       </c>
       <c r="Q24" s="16">
         <f>'2016'!P5</f>
-        <v>79.06</v>
+        <v>98.07</v>
       </c>
       <c r="R24" s="16">
         <f>'2016'!Q5</f>
-        <v>82.03</v>
+        <v>79.06</v>
       </c>
       <c r="S24" s="16">
         <f>'2016'!R5</f>
-        <v>91.69</v>
+        <v>82.03</v>
       </c>
       <c r="T24" s="16">
         <f>'2016'!S5</f>
@@ -3727,7 +3730,7 @@
       </c>
       <c r="X24" s="16">
         <f>'2016'!W5</f>
-        <v>4.5</v>
+        <v>49.04</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -3771,39 +3774,39 @@
       </c>
       <c r="K25" s="16">
         <f>'2016'!J6</f>
-        <v>57.28</v>
+        <v>0</v>
       </c>
       <c r="L25" s="16">
         <f>'2016'!K6</f>
-        <v>76.47</v>
+        <v>57.28</v>
       </c>
       <c r="M25" s="16">
         <f>'2016'!L6</f>
-        <v>86.63</v>
+        <v>76.47</v>
       </c>
       <c r="N25" s="16">
         <f>'2016'!M6</f>
-        <v>99.63</v>
+        <v>86.63</v>
       </c>
       <c r="O25" s="16">
         <f>'2016'!N6</f>
-        <v>83.24</v>
+        <v>99.63</v>
       </c>
       <c r="P25" s="16">
         <f>'2016'!O6</f>
-        <v>93.02</v>
+        <v>83.24</v>
       </c>
       <c r="Q25" s="16">
         <f>'2016'!P6</f>
-        <v>91.2</v>
+        <v>93.02</v>
       </c>
       <c r="R25" s="16">
         <f>'2016'!Q6</f>
-        <v>92.26</v>
+        <v>91.2</v>
       </c>
       <c r="S25" s="16">
         <f>'2016'!R6</f>
-        <v>91.98</v>
+        <v>92.26</v>
       </c>
       <c r="T25" s="16">
         <f>'2016'!S6</f>
@@ -3823,7 +3826,7 @@
       </c>
       <c r="X25" s="16">
         <f>'2016'!W6</f>
-        <v>4.8099999999999996</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
@@ -3867,39 +3870,39 @@
       </c>
       <c r="K26" s="16">
         <f>'2016'!J7</f>
-        <v>94.01</v>
+        <v>0</v>
       </c>
       <c r="L26" s="16">
         <f>'2016'!K7</f>
-        <v>81.98</v>
+        <v>94.01</v>
       </c>
       <c r="M26" s="16">
         <f>'2016'!L7</f>
-        <v>91.71</v>
+        <v>81.98</v>
       </c>
       <c r="N26" s="16">
         <f>'2016'!M7</f>
-        <v>109.46</v>
+        <v>91.71</v>
       </c>
       <c r="O26" s="16">
         <f>'2016'!N7</f>
-        <v>82.81</v>
+        <v>109.46</v>
       </c>
       <c r="P26" s="16">
         <f>'2016'!O7</f>
-        <v>99.47</v>
+        <v>82.81</v>
       </c>
       <c r="Q26" s="16">
         <f>'2016'!P7</f>
-        <v>94.28</v>
+        <v>99.47</v>
       </c>
       <c r="R26" s="16">
         <f>'2016'!Q7</f>
-        <v>95.3</v>
+        <v>94.28</v>
       </c>
       <c r="S26" s="16">
         <f>'2016'!R7</f>
-        <v>100.02</v>
+        <v>95.3</v>
       </c>
       <c r="T26" s="16">
         <f>'2016'!S7</f>
@@ -3919,7 +3922,7 @@
       </c>
       <c r="X26" s="16">
         <f>'2016'!W7</f>
-        <v>6.37</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -3962,59 +3965,59 @@
         <v>88.16</v>
       </c>
       <c r="K27" s="16">
+        <f>'2015'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <f>'2015'!K3</f>
+        <v>75.34</v>
+      </c>
+      <c r="M27" s="16">
         <f>'2015'!L3</f>
         <v>86.67</v>
       </c>
-      <c r="L27" s="16">
+      <c r="N27" s="16">
         <f>'2015'!M3</f>
         <v>72.13</v>
       </c>
-      <c r="M27" s="16">
+      <c r="O27" s="16">
         <f>'2015'!N3</f>
         <v>72.06</v>
       </c>
-      <c r="N27" s="16">
+      <c r="P27" s="16">
         <f>'2015'!O3</f>
         <v>71.680000000000007</v>
       </c>
-      <c r="O27" s="16">
+      <c r="Q27" s="16">
         <f>'2015'!P3</f>
         <v>85.6</v>
       </c>
-      <c r="P27" s="16">
+      <c r="R27" s="16">
         <f>'2015'!Q3</f>
         <v>62.76</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="S27" s="16">
         <f>'2015'!R3</f>
         <v>58.01</v>
       </c>
-      <c r="R27" s="16">
+      <c r="T27" s="16">
         <f>'2015'!S3</f>
         <v>85.11</v>
       </c>
-      <c r="S27" s="16">
+      <c r="U27" s="16">
         <f>'2015'!T3</f>
         <v>71.62</v>
       </c>
-      <c r="T27" s="16">
+      <c r="V27" s="16">
         <f>'2015'!U3</f>
         <v>32.53</v>
       </c>
-      <c r="U27" s="16">
+      <c r="W27" s="16">
         <f>'2015'!V3</f>
         <v>27.87</v>
       </c>
-      <c r="V27" s="16">
+      <c r="X27" s="16">
         <f>'2015'!W3</f>
-        <v>84.26</v>
-      </c>
-      <c r="W27" s="16">
-        <f>'2015'!X3</f>
-        <v>170.83</v>
-      </c>
-      <c r="X27" s="16">
-        <f>'2015'!Y3</f>
         <v>83.05</v>
       </c>
     </row>
@@ -4058,59 +4061,59 @@
         <v>100.44</v>
       </c>
       <c r="K28" s="16">
+        <f>'2015'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <f>'2015'!K4</f>
+        <v>38.9</v>
+      </c>
+      <c r="M28" s="16">
         <f>'2015'!L4</f>
         <v>94.35</v>
       </c>
-      <c r="L28" s="16">
+      <c r="N28" s="16">
         <f>'2015'!M4</f>
         <v>86.4</v>
       </c>
-      <c r="M28" s="16">
+      <c r="O28" s="16">
         <f>'2015'!N4</f>
         <v>86.25</v>
       </c>
-      <c r="N28" s="16">
+      <c r="P28" s="16">
         <f>'2015'!O4</f>
         <v>86.53</v>
       </c>
-      <c r="O28" s="16">
+      <c r="Q28" s="16">
         <f>'2015'!P4</f>
         <v>95.31</v>
       </c>
-      <c r="P28" s="16">
+      <c r="R28" s="16">
         <f>'2015'!Q4</f>
         <v>80.349999999999994</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="S28" s="16">
         <f>'2015'!R4</f>
         <v>77.05</v>
       </c>
-      <c r="R28" s="16">
+      <c r="T28" s="16">
         <f>'2015'!S4</f>
         <v>96.34</v>
       </c>
-      <c r="S28" s="16">
+      <c r="U28" s="16">
         <f>'2015'!T4</f>
         <v>86.18</v>
       </c>
-      <c r="T28" s="16">
+      <c r="V28" s="16">
         <f>'2015'!U4</f>
         <v>51.17</v>
       </c>
-      <c r="U28" s="16">
+      <c r="W28" s="16">
         <f>'2015'!V4</f>
         <v>44.19</v>
       </c>
-      <c r="V28" s="16">
+      <c r="X28" s="16">
         <f>'2015'!W4</f>
-        <v>96</v>
-      </c>
-      <c r="W28" s="16">
-        <f>'2015'!X4</f>
-        <v>202.5</v>
-      </c>
-      <c r="X28" s="16">
-        <f>'2015'!Y4</f>
         <v>95.4</v>
       </c>
     </row>
@@ -4154,59 +4157,59 @@
         <v>100.52</v>
       </c>
       <c r="K29" s="16">
+        <f>'2015'!J5</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <f>'2015'!K5</f>
+        <v>31.17</v>
+      </c>
+      <c r="M29" s="16">
         <f>'2015'!L5</f>
         <v>101.02</v>
       </c>
-      <c r="L29" s="16">
+      <c r="N29" s="16">
         <f>'2015'!M5</f>
         <v>92.9</v>
       </c>
-      <c r="M29" s="16">
+      <c r="O29" s="16">
         <f>'2015'!N5</f>
         <v>93.07</v>
       </c>
-      <c r="N29" s="16">
+      <c r="P29" s="16">
         <f>'2015'!O5</f>
         <v>88.5</v>
       </c>
-      <c r="O29" s="16">
+      <c r="Q29" s="16">
         <f>'2015'!P5</f>
         <v>99.92</v>
       </c>
-      <c r="P29" s="16">
+      <c r="R29" s="16">
         <f>'2015'!Q5</f>
         <v>86.97</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="S29" s="16">
         <f>'2015'!R5</f>
         <v>86.98</v>
       </c>
-      <c r="R29" s="16">
+      <c r="T29" s="16">
         <f>'2015'!S5</f>
         <v>100.05</v>
       </c>
-      <c r="S29" s="16">
+      <c r="U29" s="16">
         <f>'2015'!T5</f>
         <v>90.23</v>
       </c>
-      <c r="T29" s="16">
+      <c r="V29" s="16">
         <f>'2015'!U5</f>
         <v>50.35</v>
       </c>
-      <c r="U29" s="16">
+      <c r="W29" s="16">
         <f>'2015'!V5</f>
         <v>53.97</v>
       </c>
-      <c r="V29" s="16">
+      <c r="X29" s="16">
         <f>'2015'!W5</f>
-        <v>97.94</v>
-      </c>
-      <c r="W29" s="16">
-        <f>'2015'!X5</f>
-        <v>202.63</v>
-      </c>
-      <c r="X29" s="16">
-        <f>'2015'!Y5</f>
         <v>98.51</v>
       </c>
     </row>
@@ -4250,59 +4253,59 @@
         <v>95.57</v>
       </c>
       <c r="K30" s="16">
+        <f>'2015'!J6</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <f>'2015'!K6</f>
+        <v>58.07</v>
+      </c>
+      <c r="M30" s="16">
         <f>'2015'!L6</f>
         <v>101.63</v>
       </c>
-      <c r="L30" s="16">
+      <c r="N30" s="16">
         <f>'2015'!M6</f>
         <v>92.51</v>
       </c>
-      <c r="M30" s="16">
+      <c r="O30" s="16">
         <f>'2015'!N6</f>
         <v>90.23</v>
       </c>
-      <c r="N30" s="16">
+      <c r="P30" s="16">
         <f>'2015'!O6</f>
         <v>80.099999999999994</v>
       </c>
-      <c r="O30" s="16">
+      <c r="Q30" s="16">
         <f>'2015'!P6</f>
         <v>96.12</v>
       </c>
-      <c r="P30" s="16">
+      <c r="R30" s="16">
         <f>'2015'!Q6</f>
         <v>76.540000000000006</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="S30" s="16">
         <f>'2015'!R6</f>
         <v>70.69</v>
       </c>
-      <c r="R30" s="16">
+      <c r="T30" s="16">
         <f>'2015'!S6</f>
         <v>98.93</v>
       </c>
-      <c r="S30" s="16">
+      <c r="U30" s="16">
         <f>'2015'!T6</f>
         <v>84.41</v>
       </c>
-      <c r="T30" s="16">
+      <c r="V30" s="16">
         <f>'2015'!U6</f>
         <v>31.42</v>
       </c>
-      <c r="U30" s="16">
+      <c r="W30" s="16">
         <f>'2015'!V6</f>
         <v>35.630000000000003</v>
       </c>
-      <c r="V30" s="16">
+      <c r="X30" s="16">
         <f>'2015'!W6</f>
-        <v>97.57</v>
-      </c>
-      <c r="W30" s="16">
-        <f>'2015'!X6</f>
-        <v>191.05</v>
-      </c>
-      <c r="X30" s="16">
-        <f>'2015'!Y6</f>
         <v>94.24</v>
       </c>
     </row>
@@ -4346,59 +4349,59 @@
         <v>97.88</v>
       </c>
       <c r="K31" s="16">
+        <f>'2015'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <f>'2015'!K7</f>
+        <v>87.17</v>
+      </c>
+      <c r="M31" s="16">
         <f>'2015'!L7</f>
         <v>93.56</v>
       </c>
-      <c r="L31" s="16">
+      <c r="N31" s="16">
         <f>'2015'!M7</f>
         <v>87.73</v>
       </c>
-      <c r="M31" s="16">
+      <c r="O31" s="16">
         <f>'2015'!N7</f>
         <v>85.06</v>
       </c>
-      <c r="N31" s="16">
+      <c r="P31" s="16">
         <f>'2015'!O7</f>
         <v>82.42</v>
       </c>
-      <c r="O31" s="16">
+      <c r="Q31" s="16">
         <f>'2015'!P7</f>
         <v>93.73</v>
       </c>
-      <c r="P31" s="16">
+      <c r="R31" s="16">
         <f>'2015'!Q7</f>
         <v>72.569999999999993</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="S31" s="16">
         <f>'2015'!R7</f>
         <v>68.23</v>
       </c>
-      <c r="R31" s="16">
+      <c r="T31" s="16">
         <f>'2015'!S7</f>
         <v>95.75</v>
       </c>
-      <c r="S31" s="16">
+      <c r="U31" s="16">
         <f>'2015'!T7</f>
         <v>83.68</v>
       </c>
-      <c r="T31" s="16">
+      <c r="V31" s="16">
         <f>'2015'!U7</f>
         <v>43.37</v>
       </c>
-      <c r="U31" s="16">
+      <c r="W31" s="16">
         <f>'2015'!V7</f>
         <v>41.87</v>
       </c>
-      <c r="V31" s="16">
+      <c r="X31" s="16">
         <f>'2015'!W7</f>
-        <v>93.21</v>
-      </c>
-      <c r="W31" s="16">
-        <f>'2015'!X7</f>
-        <v>186.86</v>
-      </c>
-      <c r="X31" s="16">
-        <f>'2015'!Y7</f>
         <v>94.42</v>
       </c>
     </row>
@@ -4442,59 +4445,59 @@
         <v>88.16</v>
       </c>
       <c r="K32" s="24">
+        <f>'2015'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="24">
         <f>'2015'!K3</f>
         <v>75.34</v>
       </c>
-      <c r="L32" s="24">
+      <c r="M32" s="24">
         <f>'2015'!L3</f>
         <v>86.67</v>
       </c>
-      <c r="M32" s="24">
+      <c r="N32" s="24">
         <f>'2015'!M3</f>
         <v>72.13</v>
       </c>
-      <c r="N32" s="24">
+      <c r="O32" s="24">
         <f>'2015'!N3</f>
         <v>72.06</v>
       </c>
-      <c r="O32" s="24">
+      <c r="P32" s="24">
         <f>'2015'!O3</f>
         <v>71.680000000000007</v>
       </c>
-      <c r="P32" s="24">
+      <c r="Q32" s="24">
         <f>'2015'!P3</f>
         <v>85.6</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="R32" s="24">
         <f>'2015'!Q3</f>
         <v>62.76</v>
       </c>
-      <c r="R32" s="24">
+      <c r="S32" s="24">
         <f>'2015'!R3</f>
         <v>58.01</v>
       </c>
-      <c r="S32" s="24">
+      <c r="T32" s="24">
         <f>'2015'!S3</f>
         <v>85.11</v>
       </c>
-      <c r="T32" s="24">
+      <c r="U32" s="24">
         <f>'2015'!T3</f>
         <v>71.62</v>
       </c>
-      <c r="U32" s="24">
+      <c r="V32" s="24">
         <f>'2015'!U3</f>
         <v>32.53</v>
       </c>
-      <c r="V32" s="24">
+      <c r="W32" s="24">
         <f>'2015'!V3</f>
         <v>27.87</v>
       </c>
-      <c r="W32" s="24">
+      <c r="X32" s="24">
         <f>'2015'!W3</f>
-        <v>84.26</v>
-      </c>
-      <c r="X32" s="24">
-        <f>'2015'!Y3</f>
         <v>83.05</v>
       </c>
     </row>
@@ -4538,59 +4541,59 @@
         <v>100.44</v>
       </c>
       <c r="K33" s="24">
+        <f>'2015'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="24">
         <f>'2015'!K4</f>
         <v>38.9</v>
       </c>
-      <c r="L33" s="24">
+      <c r="M33" s="24">
         <f>'2015'!L4</f>
         <v>94.35</v>
       </c>
-      <c r="M33" s="24">
+      <c r="N33" s="24">
         <f>'2015'!M4</f>
         <v>86.4</v>
       </c>
-      <c r="N33" s="24">
+      <c r="O33" s="24">
         <f>'2015'!N4</f>
         <v>86.25</v>
       </c>
-      <c r="O33" s="24">
+      <c r="P33" s="24">
         <f>'2015'!O4</f>
         <v>86.53</v>
       </c>
-      <c r="P33" s="24">
+      <c r="Q33" s="24">
         <f>'2015'!P4</f>
         <v>95.31</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="R33" s="24">
         <f>'2015'!Q4</f>
         <v>80.349999999999994</v>
       </c>
-      <c r="R33" s="24">
+      <c r="S33" s="24">
         <f>'2015'!R4</f>
         <v>77.05</v>
       </c>
-      <c r="S33" s="24">
+      <c r="T33" s="24">
         <f>'2015'!S4</f>
         <v>96.34</v>
       </c>
-      <c r="T33" s="24">
+      <c r="U33" s="24">
         <f>'2015'!T4</f>
         <v>86.18</v>
       </c>
-      <c r="U33" s="24">
+      <c r="V33" s="24">
         <f>'2015'!U4</f>
         <v>51.17</v>
       </c>
-      <c r="V33" s="24">
+      <c r="W33" s="24">
         <f>'2015'!V4</f>
         <v>44.19</v>
       </c>
-      <c r="W33" s="24">
+      <c r="X33" s="24">
         <f>'2015'!W4</f>
-        <v>96</v>
-      </c>
-      <c r="X33" s="24">
-        <f>'2015'!Y4</f>
         <v>95.4</v>
       </c>
     </row>
@@ -4634,59 +4637,59 @@
         <v>100.52</v>
       </c>
       <c r="K34" s="24">
+        <f>'2015'!J5</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="24">
         <f>'2015'!K5</f>
         <v>31.17</v>
       </c>
-      <c r="L34" s="24">
+      <c r="M34" s="24">
         <f>'2015'!L5</f>
         <v>101.02</v>
       </c>
-      <c r="M34" s="24">
+      <c r="N34" s="24">
         <f>'2015'!M5</f>
         <v>92.9</v>
       </c>
-      <c r="N34" s="24">
+      <c r="O34" s="24">
         <f>'2015'!N5</f>
         <v>93.07</v>
       </c>
-      <c r="O34" s="24">
+      <c r="P34" s="24">
         <f>'2015'!O5</f>
         <v>88.5</v>
       </c>
-      <c r="P34" s="24">
+      <c r="Q34" s="24">
         <f>'2015'!P5</f>
         <v>99.92</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="R34" s="24">
         <f>'2015'!Q5</f>
         <v>86.97</v>
       </c>
-      <c r="R34" s="24">
+      <c r="S34" s="24">
         <f>'2015'!R5</f>
         <v>86.98</v>
       </c>
-      <c r="S34" s="24">
+      <c r="T34" s="24">
         <f>'2015'!S5</f>
         <v>100.05</v>
       </c>
-      <c r="T34" s="24">
+      <c r="U34" s="24">
         <f>'2015'!T5</f>
         <v>90.23</v>
       </c>
-      <c r="U34" s="24">
+      <c r="V34" s="24">
         <f>'2015'!U5</f>
         <v>50.35</v>
       </c>
-      <c r="V34" s="24">
+      <c r="W34" s="24">
         <f>'2015'!V5</f>
         <v>53.97</v>
       </c>
-      <c r="W34" s="24">
+      <c r="X34" s="24">
         <f>'2015'!W5</f>
-        <v>97.94</v>
-      </c>
-      <c r="X34" s="24">
-        <f>'2015'!Y5</f>
         <v>98.51</v>
       </c>
     </row>
@@ -4730,59 +4733,59 @@
         <v>95.57</v>
       </c>
       <c r="K35" s="24">
+        <f>'2015'!J6</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="24">
         <f>'2015'!K6</f>
         <v>58.07</v>
       </c>
-      <c r="L35" s="24">
+      <c r="M35" s="24">
         <f>'2015'!L6</f>
         <v>101.63</v>
       </c>
-      <c r="M35" s="24">
+      <c r="N35" s="24">
         <f>'2015'!M6</f>
         <v>92.51</v>
       </c>
-      <c r="N35" s="24">
+      <c r="O35" s="24">
         <f>'2015'!N6</f>
         <v>90.23</v>
       </c>
-      <c r="O35" s="24">
+      <c r="P35" s="24">
         <f>'2015'!O6</f>
         <v>80.099999999999994</v>
       </c>
-      <c r="P35" s="24">
+      <c r="Q35" s="24">
         <f>'2015'!P6</f>
         <v>96.12</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="R35" s="24">
         <f>'2015'!Q6</f>
         <v>76.540000000000006</v>
       </c>
-      <c r="R35" s="24">
+      <c r="S35" s="24">
         <f>'2015'!R6</f>
         <v>70.69</v>
       </c>
-      <c r="S35" s="24">
+      <c r="T35" s="24">
         <f>'2015'!S6</f>
         <v>98.93</v>
       </c>
-      <c r="T35" s="24">
+      <c r="U35" s="24">
         <f>'2015'!T6</f>
         <v>84.41</v>
       </c>
-      <c r="U35" s="24">
+      <c r="V35" s="24">
         <f>'2015'!U6</f>
         <v>31.42</v>
       </c>
-      <c r="V35" s="24">
+      <c r="W35" s="24">
         <f>'2015'!V6</f>
         <v>35.630000000000003</v>
       </c>
-      <c r="W35" s="24">
+      <c r="X35" s="24">
         <f>'2015'!W6</f>
-        <v>97.57</v>
-      </c>
-      <c r="X35" s="24">
-        <f>'2015'!Y6</f>
         <v>94.24</v>
       </c>
     </row>
@@ -4826,59 +4829,59 @@
         <v>97.88</v>
       </c>
       <c r="K36" s="24">
+        <f>'2015'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="24">
         <f>'2015'!K7</f>
         <v>87.17</v>
       </c>
-      <c r="L36" s="24">
+      <c r="M36" s="24">
         <f>'2015'!L7</f>
         <v>93.56</v>
       </c>
-      <c r="M36" s="24">
+      <c r="N36" s="24">
         <f>'2015'!M7</f>
         <v>87.73</v>
       </c>
-      <c r="N36" s="24">
+      <c r="O36" s="24">
         <f>'2015'!N7</f>
         <v>85.06</v>
       </c>
-      <c r="O36" s="24">
+      <c r="P36" s="24">
         <f>'2015'!O7</f>
         <v>82.42</v>
       </c>
-      <c r="P36" s="24">
+      <c r="Q36" s="24">
         <f>'2015'!P7</f>
         <v>93.73</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="R36" s="24">
         <f>'2015'!Q7</f>
         <v>72.569999999999993</v>
       </c>
-      <c r="R36" s="24">
+      <c r="S36" s="24">
         <f>'2015'!R7</f>
         <v>68.23</v>
       </c>
-      <c r="S36" s="24">
+      <c r="T36" s="24">
         <f>'2015'!S7</f>
         <v>95.75</v>
       </c>
-      <c r="T36" s="24">
+      <c r="U36" s="24">
         <f>'2015'!T7</f>
         <v>83.68</v>
       </c>
-      <c r="U36" s="24">
+      <c r="V36" s="24">
         <f>'2015'!U7</f>
         <v>43.37</v>
       </c>
-      <c r="V36" s="24">
+      <c r="W36" s="24">
         <f>'2015'!V7</f>
         <v>41.87</v>
       </c>
-      <c r="W36" s="24">
+      <c r="X36" s="24">
         <f>'2015'!W7</f>
-        <v>93.21</v>
-      </c>
-      <c r="X36" s="24">
-        <f>'2015'!Y7</f>
         <v>94.42</v>
       </c>
     </row>
@@ -4975,7 +4978,7 @@
       </c>
       <c r="X37" s="16">
         <f>'2013'!W3</f>
-        <v>86.91</v>
+        <v>68.12</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -5071,7 +5074,7 @@
       </c>
       <c r="X38" s="16">
         <f>'2013'!W4</f>
-        <v>95.84</v>
+        <v>71.91</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -5167,7 +5170,7 @@
       </c>
       <c r="X39" s="16">
         <f>'2013'!W5</f>
-        <v>100.01</v>
+        <v>73.819999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -5263,7 +5266,7 @@
       </c>
       <c r="X40" s="16">
         <f>'2013'!W6</f>
-        <v>102.58</v>
+        <v>75.010000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
@@ -5359,7 +5362,7 @@
       </c>
       <c r="X41" s="16">
         <f>'2013'!W7</f>
-        <v>105.06</v>
+        <v>80.09</v>
       </c>
     </row>
   </sheetData>
@@ -5374,8 +5377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE95A39-32DE-4AAC-8156-5F5AA383DC12}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5913,7 +5916,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,7 +6458,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6970,7 +6973,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7484,10 +7487,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12176B41-CBB8-4686-9722-AD451652373C}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7497,537 +7500,569 @@
     <col min="4" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="19">
         <v>95.55</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="19">
         <v>81.75</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="19">
         <v>88.98</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="19">
         <v>91.68</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="19">
         <v>105.19</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="19">
         <v>89.27</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="19">
         <v>95</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="19">
         <v>84.43</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
         <v>44.59</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="19">
         <v>71.58</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="19">
         <v>84.1</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="19">
         <v>93.86</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="19">
         <v>74.36</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="19">
         <v>95.41</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="19">
         <v>76.709999999999994</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="19">
         <v>79.040000000000006</v>
       </c>
-      <c r="R2" s="7">
-        <v>89.53</v>
-      </c>
-      <c r="S2" s="7">
+      <c r="S2" s="19">
         <v>2.73</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="19">
         <v>64.28</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="19">
         <v>31.53</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="19">
         <v>33.81</v>
       </c>
-      <c r="W2" s="7">
-        <v>5.21</v>
-      </c>
-      <c r="X2" s="7">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="Y2" s="7">
+      <c r="W2" s="19">
         <v>50.44</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="23">
         <v>92.05</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="23">
         <v>72.680000000000007</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="23">
         <v>77.83</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="23">
         <v>81.87</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="23">
         <v>92.13</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="23">
         <v>78.239999999999995</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="23">
         <v>85.8</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="23">
         <v>72.28</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
         <v>72.56</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="23">
         <v>65.3</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="23">
         <v>71.77</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="23">
         <v>85.74</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="23">
         <v>57.34</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="23">
         <v>80.760000000000005</v>
       </c>
-      <c r="P3" s="7">
+      <c r="Q3" s="23">
         <v>72.459999999999994</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="R3" s="23">
         <v>72.62</v>
       </c>
-      <c r="R3" s="7">
-        <v>78.28</v>
-      </c>
-      <c r="S3" s="7">
+      <c r="S3" s="23">
         <v>2.7</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="23">
         <v>55.28</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="23">
         <v>27.49</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="23">
         <v>28.3</v>
       </c>
-      <c r="W3" s="7">
-        <v>5.31</v>
-      </c>
-      <c r="X3" s="7">
-        <v>19.16</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="W3" s="23">
         <v>48.22</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="19">
         <v>94.34</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="19">
         <v>79.41</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="19">
         <v>85.78</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="19">
         <v>88.68</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="19">
         <v>96.04</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="19">
         <v>86.21</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="19">
         <v>92.16</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="19">
         <v>81.55</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
         <v>33.76</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="19">
         <v>70.12</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="19">
         <v>81.290000000000006</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="19">
         <v>93.05</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="19">
         <v>68.97</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="19">
         <v>97.21</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Q4" s="19">
         <v>62.94</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="R4" s="19">
         <v>66.2</v>
       </c>
-      <c r="R4" s="7">
-        <v>86.56</v>
-      </c>
-      <c r="S4" s="7">
+      <c r="S4" s="19">
         <v>2.7</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="19">
         <v>66.84</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="19">
         <v>39.270000000000003</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="19">
         <v>36.29</v>
       </c>
-      <c r="W4" s="7">
-        <v>6.02</v>
-      </c>
-      <c r="X4" s="7">
-        <v>15.43</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="W4" s="19">
         <v>47.96</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="23">
         <v>95.4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="23">
         <v>85.46</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="23">
         <v>91.48</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="23">
         <v>93.12</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="23">
         <v>111.33</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="23">
         <v>91.36</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="23">
         <v>96.93</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="23">
         <v>86.31</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
         <v>29.5</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="23">
         <v>70.52</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="23">
         <v>86.99</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="23">
         <v>91.46</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="23">
         <v>78.05</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="23">
         <v>98.07</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="23">
         <v>79.06</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="23">
         <v>82.03</v>
       </c>
-      <c r="R5" s="7">
-        <v>91.69</v>
-      </c>
-      <c r="S5" s="7">
+      <c r="S5" s="23">
         <v>2.58</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="23">
         <v>62.75</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="23">
         <v>27.44</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="23">
         <v>32.380000000000003</v>
       </c>
-      <c r="W5" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="X5" s="7">
-        <v>14.22</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="W5" s="23">
         <v>49.04</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="19">
         <v>96.07</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="19">
         <v>77.239999999999995</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="19">
         <v>91.74</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="19">
         <v>94.51</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="19">
         <v>110.79</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="19">
         <v>91.8</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="19">
         <v>96.71</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="19">
         <v>87.5</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
         <v>57.28</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="19">
         <v>76.47</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="19">
         <v>86.63</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="19">
         <v>99.63</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="19">
         <v>83.24</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="19">
         <v>93.02</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="19">
         <v>91.2</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="19">
         <v>92.26</v>
       </c>
-      <c r="R6" s="7">
-        <v>91.98</v>
-      </c>
-      <c r="S6" s="7">
+      <c r="S6" s="19">
         <v>2.74</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="19">
         <v>63.84</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="19">
         <v>22.86</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="19">
         <v>30</v>
       </c>
-      <c r="W6" s="7">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="X6" s="7">
-        <v>20.260000000000002</v>
-      </c>
-      <c r="Y6" s="7">
+      <c r="W6" s="19">
         <v>55.6</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="21">
         <v>104.13</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="21">
         <v>90.92</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="21">
         <v>97.93</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="21">
         <v>103.15</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="21">
         <v>114.75</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="21">
         <v>99.95</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="21">
         <v>104.59</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="21">
         <v>96.15</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
         <v>94.01</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="21">
         <v>81.98</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="21">
         <v>91.71</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="21">
         <v>109.46</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="21">
         <v>82.81</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="21">
         <v>99.47</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="21">
         <v>94.28</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="21">
         <v>95.3</v>
       </c>
-      <c r="R7" s="7">
-        <v>100.02</v>
-      </c>
-      <c r="S7" s="7">
+      <c r="S7" s="21">
         <v>3.61</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="21">
         <v>75.45</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="21">
         <v>44.33</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="21">
         <v>45.7</v>
       </c>
-      <c r="W7" s="7">
-        <v>6.37</v>
-      </c>
-      <c r="X7" s="7">
-        <v>23.35</v>
-      </c>
-      <c r="Y7" s="7">
+      <c r="W7" s="21">
         <v>60.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8038,10 +8073,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EFC708-2FE7-4C7C-8836-84ECA9730969}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8052,7 +8087,7 @@
     <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -8120,18 +8155,12 @@
         <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="9"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
@@ -8199,18 +8228,12 @@
         <v>44.97</v>
       </c>
       <c r="W2" s="19">
-        <v>95.49</v>
-      </c>
-      <c r="X2" s="19">
-        <v>196.58</v>
-      </c>
-      <c r="Y2" s="19">
         <v>95.07</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-    </row>
-    <row r="3" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
@@ -8278,18 +8301,12 @@
         <v>27.87</v>
       </c>
       <c r="W3" s="23">
-        <v>84.26</v>
-      </c>
-      <c r="X3" s="23">
-        <v>170.83</v>
-      </c>
-      <c r="Y3" s="23">
         <v>83.05</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-    </row>
-    <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -8357,18 +8374,12 @@
         <v>44.19</v>
       </c>
       <c r="W4" s="19">
-        <v>96</v>
-      </c>
-      <c r="X4" s="19">
-        <v>202.5</v>
-      </c>
-      <c r="Y4" s="19">
         <v>95.4</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-    </row>
-    <row r="5" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
@@ -8436,18 +8447,12 @@
         <v>53.97</v>
       </c>
       <c r="W5" s="23">
-        <v>97.94</v>
-      </c>
-      <c r="X5" s="23">
-        <v>202.63</v>
-      </c>
-      <c r="Y5" s="23">
         <v>98.51</v>
       </c>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
@@ -8515,18 +8520,12 @@
         <v>35.630000000000003</v>
       </c>
       <c r="W6" s="19">
-        <v>97.57</v>
-      </c>
-      <c r="X6" s="19">
-        <v>191.05</v>
-      </c>
-      <c r="Y6" s="19">
         <v>94.24</v>
       </c>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-    </row>
-    <row r="7" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -8594,18 +8593,12 @@
         <v>41.87</v>
       </c>
       <c r="W7" s="21">
-        <v>93.21</v>
-      </c>
-      <c r="X7" s="21">
-        <v>186.86</v>
-      </c>
-      <c r="Y7" s="21">
         <v>94.42</v>
       </c>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -8670,11 +8663,11 @@
       <c r="V8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="W8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8700,10 +8693,8 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8729,10 +8720,8 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8758,10 +8747,8 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8787,10 +8774,8 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8816,10 +8801,8 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8845,10 +8828,8 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8874,10 +8855,8 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8903,10 +8882,8 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -8932,10 +8909,8 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -8961,10 +8936,8 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8990,10 +8963,8 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -9019,10 +8990,8 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -9048,10 +9017,8 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -9077,10 +9044,8 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -9106,10 +9071,8 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -9135,10 +9098,8 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9164,10 +9125,8 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -9193,10 +9152,8 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9222,10 +9179,8 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9251,10 +9206,8 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -9280,8 +9233,6 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9291,10 +9242,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B5F6AF-0B89-4605-BF14-3404DFEBF2A3}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="X1" sqref="X1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9304,7 +9255,7 @@
     <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -9375,16 +9326,10 @@
         <v>20</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -9455,16 +9400,10 @@
         <v>9.34</v>
       </c>
       <c r="X2" s="7">
-        <v>95.5</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>160.09</v>
-      </c>
-      <c r="Z2" s="7">
         <v>86.31</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -9535,16 +9474,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X3" s="7">
-        <v>84.32</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>123.44</v>
-      </c>
-      <c r="Z3" s="7">
         <v>76.25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -9615,16 +9548,10 @@
         <v>10.39</v>
       </c>
       <c r="X4" s="7">
-        <v>92.77</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>169.79</v>
-      </c>
-      <c r="Z4" s="7">
         <v>85.66</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -9695,16 +9622,10 @@
         <v>10.46</v>
       </c>
       <c r="X5" s="7">
-        <v>98.03</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>166.96</v>
-      </c>
-      <c r="Z5" s="7">
         <v>87.97</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -9775,16 +9696,10 @@
         <v>6.47</v>
       </c>
       <c r="X6" s="7">
-        <v>98.58</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>156.08000000000001</v>
-      </c>
-      <c r="Z6" s="7">
         <v>87.04</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -9855,16 +9770,10 @@
         <v>10.44</v>
       </c>
       <c r="X7" s="7">
-        <v>102.56</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>150.63</v>
-      </c>
-      <c r="Z7" s="7">
         <v>92.76</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -9935,7 +9844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -9960,10 +9869,8 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -9988,10 +9895,8 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -10016,10 +9921,8 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -10044,10 +9947,8 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -10072,10 +9973,8 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -10100,10 +9999,8 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -10128,10 +10025,8 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -10156,10 +10051,8 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -10184,10 +10077,8 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -10212,10 +10103,8 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -10240,10 +10129,8 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -10268,10 +10155,8 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -10296,10 +10181,8 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -10324,10 +10207,8 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -10352,10 +10233,8 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -10380,10 +10259,8 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -10408,10 +10285,8 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -10436,10 +10311,8 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -10464,10 +10337,8 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -10492,10 +10363,8 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -10520,8 +10389,6 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10530,10 +10397,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F534600-D527-42CF-9DCD-2C6F02C7FEC0}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10554,17 +10421,15 @@
     <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="3"/>
-    <col min="25" max="25" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="3"/>
+    <col min="23" max="23" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
@@ -10632,16 +10497,10 @@
         <v>20</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -10709,16 +10568,10 @@
         <v>2.8</v>
       </c>
       <c r="W2" s="13">
-        <v>98.11</v>
-      </c>
-      <c r="X2" s="13">
-        <v>53.87</v>
-      </c>
-      <c r="Y2" s="13">
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -10786,16 +10639,10 @@
         <v>2.88</v>
       </c>
       <c r="W3" s="13">
-        <v>86.91</v>
-      </c>
-      <c r="X3" s="13">
-        <v>48.18</v>
-      </c>
-      <c r="Y3" s="13">
         <v>68.12</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -10863,16 +10710,10 @@
         <v>4.13</v>
       </c>
       <c r="W4" s="13">
-        <v>95.84</v>
-      </c>
-      <c r="X4" s="13">
-        <v>51.31</v>
-      </c>
-      <c r="Y4" s="13">
         <v>71.91</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -10940,16 +10781,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="W5" s="13">
-        <v>100.01</v>
-      </c>
-      <c r="X5" s="13">
-        <v>57.22</v>
-      </c>
-      <c r="Y5" s="13">
         <v>73.819999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -11017,16 +10852,10 @@
         <v>1.35</v>
       </c>
       <c r="W6" s="13">
-        <v>102.58</v>
-      </c>
-      <c r="X6" s="13">
-        <v>53.1</v>
-      </c>
-      <c r="Y6" s="13">
         <v>75.010000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -11094,16 +10923,10 @@
         <v>3.14</v>
       </c>
       <c r="W7" s="13">
-        <v>105.06</v>
-      </c>
-      <c r="X7" s="13">
-        <v>55.69</v>
-      </c>
-      <c r="Y7" s="13">
         <v>80.09</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -11126,13 +10949,8 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -11156,10 +10974,8 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -11183,10 +10999,8 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -11210,10 +11024,8 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -11237,10 +11049,8 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11264,10 +11074,8 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -11291,10 +11099,8 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -11318,10 +11124,8 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -11345,10 +11149,8 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11372,10 +11174,8 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11399,10 +11199,8 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -11426,10 +11224,8 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -11453,10 +11249,8 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -11480,10 +11274,8 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -11507,10 +11299,8 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -11534,10 +11324,8 @@
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11561,10 +11349,8 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -11588,10 +11374,8 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -11615,10 +11399,8 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -11642,10 +11424,8 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -11669,10 +11449,8 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11696,8 +11474,6 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
